--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="24780" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="1291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="1292">
   <si>
     <t>Nr</t>
   </si>
@@ -30,9 +30,6 @@
     <t>CAS</t>
   </si>
   <si>
-    <t>dGow</t>
-  </si>
-  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
     <t>HAcceptors</t>
   </si>
   <si>
+    <t>GI</t>
+  </si>
+  <si>
     <t>BrC(F)(F)F</t>
   </si>
   <si>
@@ -3892,13 +3892,16 @@
   </si>
   <si>
     <t>96-54-8</t>
+  </si>
+  <si>
+    <t>Partition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3909,6 +3912,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3947,11 +3964,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3960,11 +3987,21 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4293,20 +4330,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K654"/>
+  <dimension ref="A1:L654"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E656" sqref="E656"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4317,31 +4354,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4375,8 +4415,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2">
+        <v>598.05425681600002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4410,8 +4453,11 @@
       <c r="K3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>466.34120653600002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4445,8 +4491,11 @@
       <c r="K4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4">
+        <v>938.26068646900001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4480,8 +4529,11 @@
       <c r="K5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5">
+        <v>377.81449399399997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4515,8 +4567,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6">
+        <v>256.28563054199998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4550,8 +4605,11 @@
       <c r="K7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7">
+        <v>376.05083695000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4585,8 +4643,11 @@
       <c r="K8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8">
+        <v>376.05083695000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4620,8 +4681,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9">
+        <v>1249.05297253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4655,8 +4719,11 @@
       <c r="K10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10">
+        <v>1126.7451202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4690,8 +4757,11 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11">
+        <v>1201.9889251699999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4725,8 +4795,11 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12">
+        <v>456.34813960100001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4760,8 +4833,11 @@
       <c r="K13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13">
+        <v>656.71339413299995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4795,8 +4871,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14">
+        <v>764.74049943600005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4830,8 +4909,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>470.77164313600002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4865,8 +4947,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16">
+        <v>1043.39466956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4900,8 +4985,11 @@
       <c r="K17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17">
+        <v>618.94991812399996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4935,8 +5023,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>485.16374503200001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4970,8 +5061,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19">
+        <v>485.16126792699998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5005,8 +5099,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20">
+        <v>789.12201767199997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5040,8 +5137,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21">
+        <v>789.10784498800001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5075,8 +5175,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>789.10789992699995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5110,8 +5213,11 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23">
+        <v>520.96317572700002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5145,8 +5251,11 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24">
+        <v>839.84330836000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5180,8 +5289,11 @@
       <c r="K25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25">
+        <v>832.14926246699997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5215,8 +5327,11 @@
       <c r="K26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26">
+        <v>622.207000752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5250,8 +5365,11 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27">
+        <v>622.18263035500001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5285,8 +5403,11 @@
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28">
+        <v>622.18552077799995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5320,8 +5441,11 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29">
+        <v>404.31803451899998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5355,8 +5479,11 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30">
+        <v>373.28404498700002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5390,8 +5517,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31">
+        <v>376.69523869599999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5425,8 +5555,11 @@
       <c r="K32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32">
+        <v>829.901209569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5460,8 +5593,11 @@
       <c r="K33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33">
+        <v>841.85516264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5495,8 +5631,11 @@
       <c r="K34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34">
+        <v>915.74321758600001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5530,8 +5669,11 @@
       <c r="K35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35">
+        <v>931.04715299199995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5565,8 +5707,11 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>529.68572716899996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5600,8 +5745,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37">
+        <v>595.63127471300004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5635,8 +5783,11 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38">
+        <v>595.63545656600002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5670,8 +5821,11 @@
       <c r="K39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39">
+        <v>595.64073205199998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5705,8 +5859,11 @@
       <c r="K40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40">
+        <v>595.62963931100001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5740,8 +5897,11 @@
       <c r="K41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41">
+        <v>618.07467101199995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5775,8 +5935,11 @@
       <c r="K42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42">
+        <v>618.09084107700005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5810,8 +5973,11 @@
       <c r="K43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43">
+        <v>750.09778483599996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5845,8 +6011,11 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44">
+        <v>933.72711125499995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5880,8 +6049,11 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45">
+        <v>941.42699903599998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5915,8 +6087,11 @@
       <c r="K46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46">
+        <v>1516.8424388599999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5950,8 +6125,11 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47">
+        <v>606.86134924800001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5985,8 +6163,11 @@
       <c r="K48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48">
+        <v>489.56365479300001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6020,8 +6201,11 @@
       <c r="K49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49">
+        <v>489.554907673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6055,8 +6239,11 @@
       <c r="K50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50">
+        <v>475.162316401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6090,8 +6277,11 @@
       <c r="K51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51">
+        <v>684.67219647299999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6125,8 +6315,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52">
+        <v>691.129696663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6160,8 +6353,11 @@
       <c r="K53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53">
+        <v>691.12645334199999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6195,8 +6391,11 @@
       <c r="K54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54">
+        <v>691.12962879600002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6230,8 +6429,11 @@
       <c r="K55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55">
+        <v>691.129696663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6265,8 +6467,11 @@
       <c r="K56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56">
+        <v>656.23593467399996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6300,8 +6505,11 @@
       <c r="K57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57">
+        <v>804.94260545999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58">
+        <v>1371.68636913</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6370,8 +6581,11 @@
       <c r="K59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59">
+        <v>368.75188701500002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6405,8 +6619,11 @@
       <c r="K60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60">
+        <v>368.767182128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6440,8 +6657,11 @@
       <c r="K61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61">
+        <v>469.92799707500001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6475,8 +6695,11 @@
       <c r="K62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62">
+        <v>469.92548327399999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6510,8 +6733,11 @@
       <c r="K63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63">
+        <v>469.93639586299997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6545,8 +6771,11 @@
       <c r="K64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64">
+        <v>125.575616186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6580,8 +6809,11 @@
       <c r="K65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65">
+        <v>469.93403500400001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6615,8 +6847,11 @@
       <c r="K66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>495.34640993800002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6650,8 +6885,11 @@
       <c r="K67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67">
+        <v>476.92528149999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6685,8 +6923,11 @@
       <c r="K68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68">
+        <v>464.26267153399999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6720,8 +6961,11 @@
       <c r="K69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69">
+        <v>1224.21997399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6755,8 +6999,11 @@
       <c r="K70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70">
+        <v>598.944382776</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6790,8 +7037,11 @@
       <c r="K71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>2069.7676891199999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6825,8 +7075,11 @@
       <c r="K72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>536.03476862100001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6860,8 +7113,11 @@
       <c r="K73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>2062.2629000900001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6895,8 +7151,11 @@
       <c r="K74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74">
+        <v>1168.7337876900001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6930,8 +7189,11 @@
       <c r="K75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>1196.4801042199999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6965,8 +7227,11 @@
       <c r="K76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>364.36780845700002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7000,8 +7265,11 @@
       <c r="K77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>1546.6067645799999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7035,8 +7303,11 @@
       <c r="K78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78">
+        <v>1038.0252743599999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7070,8 +7341,11 @@
       <c r="K79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79">
+        <v>364.36487258599999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7105,8 +7379,11 @@
       <c r="K80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80">
+        <v>972.21121552800003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7140,8 +7417,11 @@
       <c r="K81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81">
+        <v>1034.45044936</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7175,8 +7455,11 @@
       <c r="K82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82">
+        <v>1034.4463861900001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7210,8 +7493,11 @@
       <c r="K83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83">
+        <v>1288.6895802199999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7245,8 +7531,11 @@
       <c r="K84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84">
+        <v>1398.6820428200001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7280,8 +7569,11 @@
       <c r="K85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85">
+        <v>319.15893903</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7315,8 +7607,11 @@
       <c r="K86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86">
+        <v>453.76798891099997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7350,8 +7645,11 @@
       <c r="K87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87">
+        <v>1098.44806539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7385,8 +7683,11 @@
       <c r="K88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88">
+        <v>890.86405202499998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7420,8 +7721,11 @@
       <c r="K89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89">
+        <v>890.84674282399999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7455,8 +7759,11 @@
       <c r="K90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90">
+        <v>1114.41458016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7490,8 +7797,11 @@
       <c r="K91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91">
+        <v>907.29031682799996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7525,8 +7835,11 @@
       <c r="K92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92">
+        <v>907.32228944899998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7560,8 +7873,11 @@
       <c r="K93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93">
+        <v>1017.26538604</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7595,8 +7911,11 @@
       <c r="K94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94">
+        <v>1017.2807003200001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7630,8 +7949,11 @@
       <c r="K95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95">
+        <v>1142.5138827599999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7665,8 +7987,11 @@
       <c r="K96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96">
+        <v>1760.1590325499999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7700,8 +8025,11 @@
       <c r="K97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97">
+        <v>857.93940314500003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7735,8 +8063,11 @@
       <c r="K98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98">
+        <v>1635.53864365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7770,8 +8101,11 @@
       <c r="K99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99">
+        <v>754.53543295099996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7805,8 +8139,11 @@
       <c r="K100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100">
+        <v>1030.8714658399999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7840,8 +8177,11 @@
       <c r="K101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101">
+        <v>1030.89356522</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7875,8 +8215,11 @@
       <c r="K102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102">
+        <v>1140.8531233900001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7910,8 +8253,11 @@
       <c r="K103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103">
+        <v>1140.8549074499999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7945,8 +8291,11 @@
       <c r="K104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104">
+        <v>1140.84814691</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7980,8 +8329,11 @@
       <c r="K105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105">
+        <v>982.69618738300005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8015,8 +8367,11 @@
       <c r="K106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106">
+        <v>873.73086607200003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8050,8 +8405,11 @@
       <c r="K107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107">
+        <v>983.75394699100002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8085,8 +8443,11 @@
       <c r="K108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108">
+        <v>1056.4914495200001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8120,8 +8481,11 @@
       <c r="K109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109">
+        <v>776.59152495800004</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8155,8 +8519,11 @@
       <c r="K110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110">
+        <v>776.59654267200006</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8190,8 +8557,11 @@
       <c r="K111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111">
+        <v>776.61312842100006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8225,8 +8595,11 @@
       <c r="K112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112">
+        <v>886.55619597999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8260,8 +8633,11 @@
       <c r="K113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113">
+        <v>886.57702355799995</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8295,8 +8671,11 @@
       <c r="K114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114">
+        <v>886.58362044</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8330,8 +8709,11 @@
       <c r="K115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115">
+        <v>886.55194404500003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8365,8 +8747,11 @@
       <c r="K116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116">
+        <v>886.58363363800004</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8400,8 +8785,11 @@
       <c r="K117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117">
+        <v>1011.78052409</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8435,8 +8823,11 @@
       <c r="K118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118">
+        <v>1011.83259662</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8470,8 +8861,11 @@
       <c r="K119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119">
+        <v>1245.6071010200001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8505,8 +8899,11 @@
       <c r="K120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120">
+        <v>1245.6071010200001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8540,8 +8937,11 @@
       <c r="K121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121">
+        <v>1245.6071010200001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8575,8 +8975,11 @@
       <c r="K122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122">
+        <v>1245.6071010200001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8610,8 +9013,11 @@
       <c r="K123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123">
+        <v>743.63103727199996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8645,8 +9051,11 @@
       <c r="K124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124">
+        <v>520.46166671399999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8680,8 +9089,11 @@
       <c r="K125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125">
+        <v>743.68738505700003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8715,8 +9127,11 @@
       <c r="K126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126">
+        <v>853.61056497899995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8750,8 +9165,11 @@
       <c r="K127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127">
+        <v>962.091830867</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8785,8 +9203,11 @@
       <c r="K128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128">
+        <v>982.66612025799998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8820,8 +9241,11 @@
       <c r="K129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129">
+        <v>1039.4118671000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8855,8 +9279,11 @@
       <c r="K130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130">
+        <v>773.05827679900005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8890,8 +9317,11 @@
       <c r="K131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131">
+        <v>883.01702965200002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8925,8 +9355,11 @@
       <c r="K132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132">
+        <v>883.02815065300001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8960,8 +9393,11 @@
       <c r="K133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133">
+        <v>1158.48893608</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8995,8 +9431,11 @@
       <c r="K134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134">
+        <v>645.90324912200003</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9030,8 +9469,11 @@
       <c r="K135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135">
+        <v>864.61771333900003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9065,8 +9507,11 @@
       <c r="K136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136">
+        <v>864.55727852400003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9100,8 +9545,11 @@
       <c r="K137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137">
+        <v>2383.8602587400001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9135,8 +9583,11 @@
       <c r="K138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138">
+        <v>2493.8204852600002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9170,8 +9621,11 @@
       <c r="K139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139">
+        <v>755.87154382599999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9205,8 +9659,11 @@
       <c r="K140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140">
+        <v>755.88212162699995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9240,8 +9697,11 @@
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141">
+        <v>450.78764906700002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9275,8 +9735,11 @@
       <c r="K142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142">
+        <v>865.70915773000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9310,8 +9773,11 @@
       <c r="K143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143">
+        <v>881.145368835</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9345,8 +9811,11 @@
       <c r="K144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144">
+        <v>881.08732227600001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9380,8 +9849,11 @@
       <c r="K145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145">
+        <v>881.09982749400001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9415,8 +9887,11 @@
       <c r="K146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146">
+        <v>881.18276768500004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147">
         <v>146</v>
       </c>
@@ -9450,8 +9925,11 @@
       <c r="K147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147">
+        <v>881.13362392399995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148">
         <v>147</v>
       </c>
@@ -9485,8 +9963,11 @@
       <c r="K148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:11">
+      <c r="L148">
+        <v>881.137845653</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9520,8 +10001,11 @@
       <c r="K149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="L149">
+        <v>360.87922433900002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9555,8 +10039,11 @@
       <c r="K150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="L150">
+        <v>1114.9034242299999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9590,8 +10077,11 @@
       <c r="K151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:11">
+      <c r="L151">
+        <v>1114.9034242299999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9625,8 +10115,11 @@
       <c r="K152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:11">
+      <c r="L152">
+        <v>1114.9034242299999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9660,8 +10153,11 @@
       <c r="K153">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:11">
+      <c r="L153">
+        <v>1114.9034242299999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9695,8 +10191,11 @@
       <c r="K154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:11">
+      <c r="L154">
+        <v>1114.9034242299999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9730,8 +10229,11 @@
       <c r="K155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:11">
+      <c r="L155">
+        <v>629.43734614599998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9765,8 +10267,11 @@
       <c r="K156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:11">
+      <c r="L156">
+        <v>739.38836227800005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9800,8 +10305,11 @@
       <c r="K157">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:11">
+      <c r="L157">
+        <v>739.40837037899996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9835,8 +10343,11 @@
       <c r="K158">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:11">
+      <c r="L158">
+        <v>739.40350224600002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9870,8 +10381,11 @@
       <c r="K159">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:11">
+      <c r="L159">
+        <v>637.78017116499996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9905,8 +10419,11 @@
       <c r="K160">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:11">
+      <c r="L160">
+        <v>243.55494256399999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9940,8 +10457,11 @@
       <c r="K161">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:11">
+      <c r="L161">
+        <v>848.01663754799995</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9975,8 +10495,11 @@
       <c r="K162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:11">
+      <c r="L162">
+        <v>847.99906882699997</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10010,8 +10533,11 @@
       <c r="K163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:11">
+      <c r="L163">
+        <v>1797.45101548</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10045,8 +10571,11 @@
       <c r="K164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
+      <c r="L164">
+        <v>852.00413681999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10080,8 +10609,11 @@
       <c r="K165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:11">
+      <c r="L165">
+        <v>961.94944523699996</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10115,8 +10647,11 @@
       <c r="K166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:11">
+      <c r="L166">
+        <v>961.99684312399995</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10150,8 +10685,11 @@
       <c r="K167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:11">
+      <c r="L167">
+        <v>961.97713153400002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10185,8 +10723,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:11">
+      <c r="L168">
+        <v>745.77084204100004</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10220,8 +10761,11 @@
       <c r="K169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="L169">
+        <v>438.650323082</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10255,8 +10799,11 @@
       <c r="K170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:11">
+      <c r="L170">
+        <v>906.953872402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10290,8 +10837,11 @@
       <c r="K171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:11">
+      <c r="L171">
+        <v>347.35896300500002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172">
         <v>171</v>
       </c>
@@ -10325,8 +10875,11 @@
       <c r="K172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:11">
+      <c r="L172">
+        <v>515.23174134199996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173">
         <v>172</v>
       </c>
@@ -10360,8 +10913,11 @@
       <c r="K173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:11">
+      <c r="L173">
+        <v>1319.72048526</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174">
         <v>173</v>
       </c>
@@ -10395,8 +10951,11 @@
       <c r="K174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:11">
+      <c r="L174">
+        <v>1334.1261026499999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175">
         <v>174</v>
       </c>
@@ -10430,8 +10989,11 @@
       <c r="K175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:11">
+      <c r="L175">
+        <v>1334.1261026499999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176">
         <v>175</v>
       </c>
@@ -10465,8 +11027,11 @@
       <c r="K176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:11">
+      <c r="L176">
+        <v>877.59910261799996</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177">
         <v>176</v>
       </c>
@@ -10500,8 +11065,11 @@
       <c r="K177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="L177">
+        <v>877.62781236700005</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178">
         <v>177</v>
       </c>
@@ -10535,8 +11103,11 @@
       <c r="K178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="L178">
+        <v>750.45078736200003</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179">
         <v>178</v>
       </c>
@@ -10570,8 +11141,11 @@
       <c r="K179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:11">
+      <c r="L179">
+        <v>750.45100203599998</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180">
         <v>179</v>
       </c>
@@ -10605,8 +11179,11 @@
       <c r="K180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:11">
+      <c r="L180">
+        <v>750.478022205</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181">
         <v>180</v>
       </c>
@@ -10640,8 +11217,11 @@
       <c r="K181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:11">
+      <c r="L181">
+        <v>860.09530451099999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
       <c r="A182">
         <v>181</v>
       </c>
@@ -10675,8 +11255,11 @@
       <c r="K182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:11">
+      <c r="L182">
+        <v>984.21729673200002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183">
         <v>182</v>
       </c>
@@ -10710,8 +11293,11 @@
       <c r="K183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:11">
+      <c r="L183">
+        <v>994.08478633000004</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10745,8 +11331,11 @@
       <c r="K184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:11">
+      <c r="L184">
+        <v>994.08478633000004</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10780,8 +11369,11 @@
       <c r="K185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:11">
+      <c r="L185">
+        <v>994.08478633000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10815,8 +11407,11 @@
       <c r="K186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="L186">
+        <v>984.21729673200002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10850,8 +11445,11 @@
       <c r="K187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11">
+      <c r="L187">
+        <v>984.21729673200002</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10885,8 +11483,11 @@
       <c r="K188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:11">
+      <c r="L188">
+        <v>461.37967207999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10920,8 +11521,11 @@
       <c r="K189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="L189">
+        <v>984.21729673200002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10955,8 +11559,11 @@
       <c r="K190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="L190">
+        <v>984.21729673200002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10990,8 +11597,11 @@
       <c r="K191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:11">
+      <c r="L191">
+        <v>1202.3977129800001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11025,8 +11635,11 @@
       <c r="K192">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:11">
+      <c r="L192">
+        <v>1411.92458674</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11060,8 +11673,11 @@
       <c r="K193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:11">
+      <c r="L193">
+        <v>1411.92458674</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
       <c r="A194">
         <v>193</v>
       </c>
@@ -11095,8 +11711,11 @@
       <c r="K194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:11">
+      <c r="L194">
+        <v>374.341808329</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11130,8 +11749,11 @@
       <c r="K195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:11">
+      <c r="L195">
+        <v>733.90820426100004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11165,8 +11787,11 @@
       <c r="K196">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:11">
+      <c r="L196">
+        <v>734.00807810100002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
       <c r="A197">
         <v>196</v>
       </c>
@@ -11200,8 +11825,11 @@
       <c r="K197">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:11">
+      <c r="L197">
+        <v>733.91623692200005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
       <c r="A198">
         <v>197</v>
       </c>
@@ -11235,8 +11863,11 @@
       <c r="K198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:11">
+      <c r="L198">
+        <v>956.60357961399995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
       <c r="A199">
         <v>198</v>
       </c>
@@ -11270,8 +11901,11 @@
       <c r="K199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="L199">
+        <v>956.55278698200004</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
       <c r="A200">
         <v>199</v>
       </c>
@@ -11305,8 +11939,11 @@
       <c r="K200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="L200">
+        <v>730.30712260300004</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
       <c r="A201">
         <v>200</v>
       </c>
@@ -11340,8 +11977,11 @@
       <c r="K201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:11">
+      <c r="L201">
+        <v>122.75857600400001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
       <c r="A202">
         <v>201</v>
       </c>
@@ -11375,8 +12015,11 @@
       <c r="K202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:11">
+      <c r="L202">
+        <v>1420.52746548</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
       <c r="A203">
         <v>202</v>
       </c>
@@ -11410,8 +12053,11 @@
       <c r="K203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="L203">
+        <v>1420.50000565</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
       <c r="A204">
         <v>203</v>
       </c>
@@ -11445,8 +12091,11 @@
       <c r="K204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="L204">
+        <v>625.18151809100004</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
       <c r="A205">
         <v>204</v>
       </c>
@@ -11480,8 +12129,11 @@
       <c r="K205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:11">
+      <c r="L205">
+        <v>806.21018724099997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
       <c r="A206">
         <v>205</v>
       </c>
@@ -11515,8 +12167,11 @@
       <c r="K206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:11">
+      <c r="L206">
+        <v>797.08213822200003</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
       <c r="A207">
         <v>206</v>
       </c>
@@ -11550,8 +12205,11 @@
       <c r="K207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:11">
+      <c r="L207">
+        <v>929.82078072599995</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
       <c r="A208">
         <v>207</v>
       </c>
@@ -11585,8 +12243,11 @@
       <c r="K208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="L208">
+        <v>934.46120164000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
       <c r="A209">
         <v>208</v>
       </c>
@@ -11620,8 +12281,11 @@
       <c r="K209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="L209">
+        <v>1147.6232114699999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
       <c r="A210">
         <v>209</v>
       </c>
@@ -11655,8 +12319,11 @@
       <c r="K210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:11">
+      <c r="L210">
+        <v>897.80065290100003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
       <c r="A211">
         <v>210</v>
       </c>
@@ -11690,8 +12357,11 @@
       <c r="K211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:11">
+      <c r="L211">
+        <v>893.84895347400004</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
       <c r="A212">
         <v>211</v>
       </c>
@@ -11725,8 +12395,11 @@
       <c r="K212">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:11">
+      <c r="L212">
+        <v>1171.9662131099999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
       <c r="A213">
         <v>212</v>
       </c>
@@ -11760,8 +12433,11 @@
       <c r="K213">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:11">
+      <c r="L213">
+        <v>645.34999111900004</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
       <c r="A214">
         <v>213</v>
       </c>
@@ -11795,8 +12471,11 @@
       <c r="K214">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:11">
+      <c r="L214">
+        <v>1070.2381839</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
       <c r="A215">
         <v>214</v>
       </c>
@@ -11830,8 +12509,11 @@
       <c r="K215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:11">
+      <c r="L215">
+        <v>875.65036654599999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
       <c r="A216">
         <v>215</v>
       </c>
@@ -11865,8 +12547,11 @@
       <c r="K216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="L216">
+        <v>388.77009411699999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217">
         <v>216</v>
       </c>
@@ -11900,8 +12585,11 @@
       <c r="K217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:11">
+      <c r="L217">
+        <v>469.16565641</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11935,8 +12623,11 @@
       <c r="K218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:11">
+      <c r="L218">
+        <v>854.38786151700003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11970,8 +12661,11 @@
       <c r="K219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:11">
+      <c r="L219">
+        <v>863.385941559</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12005,8 +12699,11 @@
       <c r="K220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:11">
+      <c r="L220">
+        <v>1021.86316766</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12040,8 +12737,11 @@
       <c r="K221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:11">
+      <c r="L221">
+        <v>1555.2957804600001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12075,8 +12775,11 @@
       <c r="K222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:11">
+      <c r="L222">
+        <v>630.222274029</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12110,8 +12813,11 @@
       <c r="K223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:11">
+      <c r="L223">
+        <v>630.21929706100002</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
       <c r="A224">
         <v>223</v>
       </c>
@@ -12145,8 +12851,11 @@
       <c r="K224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:11">
+      <c r="L224">
+        <v>465.220734241</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
       <c r="A225">
         <v>224</v>
       </c>
@@ -12180,8 +12889,11 @@
       <c r="K225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:11">
+      <c r="L225">
+        <v>630.22008283800005</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
       <c r="A226">
         <v>225</v>
       </c>
@@ -12215,8 +12927,11 @@
       <c r="K226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:11">
+      <c r="L226">
+        <v>764.01335372100004</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
       <c r="A227">
         <v>226</v>
       </c>
@@ -12250,8 +12965,11 @@
       <c r="K227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:11">
+      <c r="L227">
+        <v>764.25249274299995</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
       <c r="A228">
         <v>227</v>
       </c>
@@ -12285,8 +13003,11 @@
       <c r="K228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:11">
+      <c r="L228">
+        <v>764.02246921599999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
       <c r="A229">
         <v>228</v>
       </c>
@@ -12320,8 +13041,11 @@
       <c r="K229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:11">
+      <c r="L229">
+        <v>896.71837729200001</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
       <c r="A230">
         <v>229</v>
       </c>
@@ -12355,8 +13079,11 @@
       <c r="K230">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="L230">
+        <v>923.07961464599998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
       <c r="A231">
         <v>230</v>
       </c>
@@ -12390,8 +13117,11 @@
       <c r="K231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:11">
+      <c r="L231">
+        <v>879.84970586700001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
       <c r="A232">
         <v>231</v>
       </c>
@@ -12425,8 +13155,11 @@
       <c r="K232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:11">
+      <c r="L232">
+        <v>1003.7834307000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
       <c r="A233">
         <v>232</v>
       </c>
@@ -12460,8 +13193,11 @@
       <c r="K233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:11">
+      <c r="L233">
+        <v>806.03412582800001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
       <c r="A234">
         <v>233</v>
       </c>
@@ -12495,8 +13231,11 @@
       <c r="K234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:11">
+      <c r="L234">
+        <v>749.73449472899995</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
       <c r="A235">
         <v>234</v>
       </c>
@@ -12530,8 +13269,11 @@
       <c r="K235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:11">
+      <c r="L235">
+        <v>749.70607449600004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
       <c r="A236">
         <v>235</v>
       </c>
@@ -12565,8 +13307,11 @@
       <c r="K236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="L236">
+        <v>549.29453062200002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
       <c r="A237">
         <v>236</v>
       </c>
@@ -12600,8 +13345,11 @@
       <c r="K237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:11">
+      <c r="L237">
+        <v>501.341491851</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
       <c r="A238">
         <v>237</v>
       </c>
@@ -12635,8 +13383,11 @@
       <c r="K238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="L238">
+        <v>510.209930579</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
       <c r="A239">
         <v>238</v>
       </c>
@@ -12670,8 +13421,11 @@
       <c r="K239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:11">
+      <c r="L239">
+        <v>325.09503115299998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
       <c r="A240">
         <v>239</v>
       </c>
@@ -12705,8 +13459,11 @@
       <c r="K240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:11">
+      <c r="L240">
+        <v>922.57383055399998</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
       <c r="A241">
         <v>240</v>
       </c>
@@ -12740,8 +13497,11 @@
       <c r="K241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:11">
+      <c r="L241">
+        <v>1001.23394492</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
       <c r="A242">
         <v>241</v>
       </c>
@@ -12775,8 +13535,11 @@
       <c r="K242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:11">
+      <c r="L242">
+        <v>403.16375207900001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
       <c r="A243">
         <v>242</v>
       </c>
@@ -12810,8 +13573,11 @@
       <c r="K243">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="L243">
+        <v>803.32970924799997</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
       <c r="A244">
         <v>243</v>
       </c>
@@ -12845,8 +13611,11 @@
       <c r="K244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:11">
+      <c r="L244">
+        <v>975.22301557000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
       <c r="A245">
         <v>244</v>
       </c>
@@ -12880,8 +13649,11 @@
       <c r="K245">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:11">
+      <c r="L245">
+        <v>737.67208386499999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
       <c r="A246">
         <v>245</v>
       </c>
@@ -12915,8 +13687,11 @@
       <c r="K246">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:11">
+      <c r="L246">
+        <v>745.55253321299995</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
       <c r="A247">
         <v>246</v>
       </c>
@@ -12950,8 +13725,11 @@
       <c r="K247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:11">
+      <c r="L247">
+        <v>295.19755300700001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
       <c r="A248">
         <v>247</v>
       </c>
@@ -12985,8 +13763,11 @@
       <c r="K248">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:11">
+      <c r="L248">
+        <v>735.31466576000003</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13020,8 +13801,11 @@
       <c r="K249">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:11">
+      <c r="L249">
+        <v>539.88476414900003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13055,8 +13839,11 @@
       <c r="K250">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:11">
+      <c r="L250">
+        <v>878.79643319299998</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
       <c r="A251">
         <v>250</v>
       </c>
@@ -13090,8 +13877,11 @@
       <c r="K251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:11">
+      <c r="L251">
+        <v>878.80053210300002</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
       <c r="A252">
         <v>251</v>
       </c>
@@ -13125,8 +13915,11 @@
       <c r="K252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:11">
+      <c r="L252">
+        <v>1012.60198988</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
       <c r="A253">
         <v>252</v>
       </c>
@@ -13160,8 +13953,11 @@
       <c r="K253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:11">
+      <c r="L253">
+        <v>1012.40958887</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
       <c r="A254">
         <v>253</v>
       </c>
@@ -13195,8 +13991,11 @@
       <c r="K254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:11">
+      <c r="L254">
+        <v>920.83799284400004</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
       <c r="A255">
         <v>254</v>
       </c>
@@ -13230,8 +14029,11 @@
       <c r="K255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:11">
+      <c r="L255">
+        <v>1098.6243452599999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
       <c r="A256">
         <v>255</v>
       </c>
@@ -13265,8 +14067,11 @@
       <c r="K256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:11">
+      <c r="L256">
+        <v>651.92308988900004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
       <c r="A257">
         <v>256</v>
       </c>
@@ -13300,8 +14105,11 @@
       <c r="K257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:11">
+      <c r="L257">
+        <v>319.42775453799999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
       <c r="A258">
         <v>257</v>
       </c>
@@ -13335,8 +14143,11 @@
       <c r="K258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:11">
+      <c r="L258">
+        <v>653.62101135600005</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
       <c r="A259">
         <v>258</v>
       </c>
@@ -13370,8 +14181,11 @@
       <c r="K259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:11">
+      <c r="L259">
+        <v>1040.2850594900001</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
       <c r="A260">
         <v>259</v>
       </c>
@@ -13405,8 +14219,11 @@
       <c r="K260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:11">
+      <c r="L260">
+        <v>1040.27699052</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
       <c r="A261">
         <v>260</v>
       </c>
@@ -13440,8 +14257,11 @@
       <c r="K261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:11">
+      <c r="L261">
+        <v>687.24249495000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
       <c r="A262">
         <v>261</v>
       </c>
@@ -13475,8 +14295,11 @@
       <c r="K262">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:11">
+      <c r="L262">
+        <v>1170.0925404</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
       <c r="A263">
         <v>262</v>
       </c>
@@ -13510,8 +14333,11 @@
       <c r="K263">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:11">
+      <c r="L263">
+        <v>1232.50290834</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
       <c r="A264">
         <v>263</v>
       </c>
@@ -13545,8 +14371,11 @@
       <c r="K264">
         <v>0</v>
       </c>
-    </row>
-    <row r="265" spans="1:11">
+      <c r="L264">
+        <v>338.99831066600001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
       <c r="A265">
         <v>264</v>
       </c>
@@ -13580,8 +14409,11 @@
       <c r="K265">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:11">
+      <c r="L265">
+        <v>681.42246172199998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
       <c r="A266">
         <v>265</v>
       </c>
@@ -13615,8 +14447,11 @@
       <c r="K266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:11">
+      <c r="L266">
+        <v>681.43943747499998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
       <c r="A267">
         <v>266</v>
       </c>
@@ -13650,8 +14485,11 @@
       <c r="K267">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:11">
+      <c r="L267">
+        <v>1035.87993465</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
       <c r="A268">
         <v>267</v>
       </c>
@@ -13685,8 +14523,11 @@
       <c r="K268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:11">
+      <c r="L268">
+        <v>1035.87886858</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
       <c r="A269">
         <v>268</v>
       </c>
@@ -13720,8 +14561,11 @@
       <c r="K269">
         <v>0</v>
       </c>
-    </row>
-    <row r="270" spans="1:11">
+      <c r="L269">
+        <v>1037.5968562600001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
       <c r="A270">
         <v>269</v>
       </c>
@@ -13755,8 +14599,11 @@
       <c r="K270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:11">
+      <c r="L270">
+        <v>1037.5793263800001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
       <c r="A271">
         <v>270</v>
       </c>
@@ -13790,8 +14637,11 @@
       <c r="K271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:11">
+      <c r="L271">
+        <v>587.03612606499996</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
       <c r="A272">
         <v>271</v>
       </c>
@@ -13825,8 +14675,11 @@
       <c r="K272">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:11">
+      <c r="L272">
+        <v>636.26636099899997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
       <c r="A273">
         <v>272</v>
       </c>
@@ -13860,8 +14713,11 @@
       <c r="K273">
         <v>0</v>
       </c>
-    </row>
-    <row r="274" spans="1:11">
+      <c r="L273">
+        <v>634.55911784499995</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
       <c r="A274">
         <v>273</v>
       </c>
@@ -13895,8 +14751,11 @@
       <c r="K274">
         <v>0</v>
       </c>
-    </row>
-    <row r="275" spans="1:11">
+      <c r="L274">
+        <v>870.99845427000002</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
       <c r="A275">
         <v>274</v>
       </c>
@@ -13930,8 +14789,11 @@
       <c r="K275">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:11">
+      <c r="L275">
+        <v>1070.0965302100001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
       <c r="A276">
         <v>275</v>
       </c>
@@ -13965,8 +14827,11 @@
       <c r="K276">
         <v>0</v>
       </c>
-    </row>
-    <row r="277" spans="1:11">
+      <c r="L276">
+        <v>500.98964674699999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14000,8 +14865,11 @@
       <c r="K277">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:11">
+      <c r="L277">
+        <v>459.78263328399998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
       <c r="A278">
         <v>277</v>
       </c>
@@ -14035,8 +14903,11 @@
       <c r="K278">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:11">
+      <c r="L278">
+        <v>313.76901445599998</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14070,8 +14941,11 @@
       <c r="K279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:11">
+      <c r="L279">
+        <v>459.78263328399998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
       <c r="A280">
         <v>279</v>
       </c>
@@ -14105,8 +14979,11 @@
       <c r="K280">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:11">
+      <c r="L280">
+        <v>459.78263328399998</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
       <c r="A281">
         <v>280</v>
       </c>
@@ -14140,8 +15017,11 @@
       <c r="K281">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:11">
+      <c r="L281">
+        <v>461.51696696599998</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
       <c r="A282">
         <v>281</v>
       </c>
@@ -14175,8 +15055,11 @@
       <c r="K282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:11">
+      <c r="L282">
+        <v>733.60450774699996</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
       <c r="A283">
         <v>282</v>
       </c>
@@ -14210,8 +15093,11 @@
       <c r="K283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="L283">
+        <v>733.60450774699996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
       <c r="A284">
         <v>283</v>
       </c>
@@ -14245,8 +15131,11 @@
       <c r="K284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:11">
+      <c r="L284">
+        <v>747.72465563599997</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
       <c r="A285">
         <v>284</v>
       </c>
@@ -14280,8 +15169,11 @@
       <c r="K285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:11">
+      <c r="L285">
+        <v>869.23625567900001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
       <c r="A286">
         <v>285</v>
       </c>
@@ -14315,8 +15207,11 @@
       <c r="K286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:11">
+      <c r="L286">
+        <v>869.26169022500005</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
       <c r="A287">
         <v>286</v>
       </c>
@@ -14350,8 +15245,11 @@
       <c r="K287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:11">
+      <c r="L287">
+        <v>846.71905890999994</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
       <c r="A288">
         <v>287</v>
       </c>
@@ -14385,8 +15283,11 @@
       <c r="K288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:11">
+      <c r="L288">
+        <v>962.33497293999994</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
       <c r="A289">
         <v>288</v>
       </c>
@@ -14420,8 +15321,11 @@
       <c r="K289">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:11">
+      <c r="L289">
+        <v>1138.7523305899999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
       <c r="A290">
         <v>289</v>
       </c>
@@ -14455,8 +15359,11 @@
       <c r="K290">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:11">
+      <c r="L290">
+        <v>570.48396496600003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
       <c r="A291">
         <v>290</v>
       </c>
@@ -14490,8 +15397,11 @@
       <c r="K291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:11">
+      <c r="L291">
+        <v>702.66472383099995</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
       <c r="A292">
         <v>291</v>
       </c>
@@ -14525,8 +15435,11 @@
       <c r="K292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:11">
+      <c r="L292">
+        <v>871.45688171899997</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12">
       <c r="A293">
         <v>292</v>
       </c>
@@ -14560,8 +15473,11 @@
       <c r="K293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:11">
+      <c r="L293">
+        <v>713.16003142900001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12">
       <c r="A294">
         <v>293</v>
       </c>
@@ -14595,8 +15511,11 @@
       <c r="K294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:11">
+      <c r="L294">
+        <v>993.19365302599999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12">
       <c r="A295">
         <v>294</v>
       </c>
@@ -14630,8 +15549,11 @@
       <c r="K295">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:11">
+      <c r="L295">
+        <v>958.31574950000004</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12">
       <c r="A296">
         <v>295</v>
       </c>
@@ -14665,8 +15587,11 @@
       <c r="K296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:11">
+      <c r="L296">
+        <v>988.750247941</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12">
       <c r="A297">
         <v>296</v>
       </c>
@@ -14700,8 +15625,11 @@
       <c r="K297">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:11">
+      <c r="L297">
+        <v>1250.2665793399999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12">
       <c r="A298">
         <v>297</v>
       </c>
@@ -14735,8 +15663,11 @@
       <c r="K298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:11">
+      <c r="L298">
+        <v>730.13001662700003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12">
       <c r="A299">
         <v>298</v>
       </c>
@@ -14770,8 +15701,11 @@
       <c r="K299">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:11">
+      <c r="L299">
+        <v>1161.8753100399999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:12">
       <c r="A300">
         <v>299</v>
       </c>
@@ -14805,8 +15739,11 @@
       <c r="K300">
         <v>2</v>
       </c>
-    </row>
-    <row r="301" spans="1:11">
+      <c r="L300">
+        <v>1044.60474327</v>
+      </c>
+    </row>
+    <row r="301" spans="1:12">
       <c r="A301">
         <v>300</v>
       </c>
@@ -14840,8 +15777,11 @@
       <c r="K301">
         <v>0</v>
       </c>
-    </row>
-    <row r="302" spans="1:11">
+      <c r="L301">
+        <v>1129.8037071399999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:12">
       <c r="A302">
         <v>301</v>
       </c>
@@ -14875,8 +15815,11 @@
       <c r="K302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:11">
+      <c r="L302">
+        <v>871.10900740700004</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12">
       <c r="A303">
         <v>302</v>
       </c>
@@ -14910,8 +15853,11 @@
       <c r="K303">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:11">
+      <c r="L303">
+        <v>871.13249351100001</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12">
       <c r="A304">
         <v>303</v>
       </c>
@@ -14945,8 +15891,11 @@
       <c r="K304">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:11">
+      <c r="L304">
+        <v>871.117983439</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12">
       <c r="A305">
         <v>304</v>
       </c>
@@ -14980,8 +15929,11 @@
       <c r="K305">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:11">
+      <c r="L305">
+        <v>567.97695315099998</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12">
       <c r="A306">
         <v>305</v>
       </c>
@@ -15015,8 +15967,11 @@
       <c r="K306">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:11">
+      <c r="L306">
+        <v>808.665714976</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12">
       <c r="A307">
         <v>306</v>
       </c>
@@ -15050,8 +16005,11 @@
       <c r="K307">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:11">
+      <c r="L307">
+        <v>1273.1812985199999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15085,8 +16043,11 @@
       <c r="K308">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:11">
+      <c r="L308">
+        <v>1136.4945339799999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15120,8 +16081,11 @@
       <c r="K309">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:11">
+      <c r="L309">
+        <v>891.67600872100002</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12">
       <c r="A310">
         <v>309</v>
       </c>
@@ -15155,8 +16119,11 @@
       <c r="K310">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:11">
+      <c r="L310">
+        <v>1246.22310806</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12">
       <c r="A311">
         <v>310</v>
       </c>
@@ -15190,8 +16157,11 @@
       <c r="K311">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:11">
+      <c r="L311">
+        <v>486.31496971399997</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12">
       <c r="A312">
         <v>311</v>
       </c>
@@ -15225,8 +16195,11 @@
       <c r="K312">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:11">
+      <c r="L312">
+        <v>455.27908036999997</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12">
       <c r="A313">
         <v>312</v>
       </c>
@@ -15260,8 +16233,11 @@
       <c r="K313">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:11">
+      <c r="L313">
+        <v>492.01802909700001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12">
       <c r="A314">
         <v>313</v>
       </c>
@@ -15295,8 +16271,11 @@
       <c r="K314">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:11">
+      <c r="L314">
+        <v>949.540476345</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12">
       <c r="A315">
         <v>314</v>
       </c>
@@ -15330,8 +16309,11 @@
       <c r="K315">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:11">
+      <c r="L315">
+        <v>818.95236083099996</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12">
       <c r="A316">
         <v>315</v>
       </c>
@@ -15365,8 +16347,11 @@
       <c r="K316">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:11">
+      <c r="L316">
+        <v>890.779335049</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12">
       <c r="A317">
         <v>316</v>
       </c>
@@ -15400,8 +16385,11 @@
       <c r="K317">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:11">
+      <c r="L317">
+        <v>1577.2618408799999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12">
       <c r="A318">
         <v>317</v>
       </c>
@@ -15435,8 +16423,11 @@
       <c r="K318">
         <v>2</v>
       </c>
-    </row>
-    <row r="319" spans="1:11">
+      <c r="L318">
+        <v>923.83473297499995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12">
       <c r="A319">
         <v>318</v>
       </c>
@@ -15470,8 +16461,11 @@
       <c r="K319">
         <v>2</v>
       </c>
-    </row>
-    <row r="320" spans="1:11">
+      <c r="L319">
+        <v>1013.0709552</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12">
       <c r="A320">
         <v>319</v>
       </c>
@@ -15505,8 +16499,11 @@
       <c r="K320">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:11">
+      <c r="L320">
+        <v>1040.4632445300001</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12">
       <c r="A321">
         <v>320</v>
       </c>
@@ -15540,8 +16537,11 @@
       <c r="K321">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:11">
+      <c r="L321">
+        <v>593.17066987999999</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
       <c r="A322">
         <v>321</v>
       </c>
@@ -15575,8 +16575,11 @@
       <c r="K322">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:11">
+      <c r="L322">
+        <v>611.67414656300002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
       <c r="A323">
         <v>322</v>
       </c>
@@ -15610,8 +16613,11 @@
       <c r="K323">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:11">
+      <c r="L323">
+        <v>611.67414656300002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
       <c r="A324">
         <v>323</v>
       </c>
@@ -15645,8 +16651,11 @@
       <c r="K324">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:11">
+      <c r="L324">
+        <v>565.94660925999995</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
       <c r="A325">
         <v>324</v>
       </c>
@@ -15680,8 +16689,11 @@
       <c r="K325">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:11">
+      <c r="L325">
+        <v>565.95144474400001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
       <c r="A326">
         <v>325</v>
       </c>
@@ -15715,8 +16727,11 @@
       <c r="K326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:11">
+      <c r="L326">
+        <v>564.24727406500006</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
       <c r="A327">
         <v>326</v>
       </c>
@@ -15750,8 +16765,11 @@
       <c r="K327">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:11">
+      <c r="L327">
+        <v>618.59705113999996</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
       <c r="A328">
         <v>327</v>
       </c>
@@ -15785,8 +16803,11 @@
       <c r="K328">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:11">
+      <c r="L328">
+        <v>565.95203670199999</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
       <c r="A329">
         <v>328</v>
       </c>
@@ -15820,8 +16841,11 @@
       <c r="K329">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:11">
+      <c r="L329">
+        <v>700.08343092500002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
       <c r="A330">
         <v>329</v>
       </c>
@@ -15855,8 +16879,11 @@
       <c r="K330">
         <v>0</v>
       </c>
-    </row>
-    <row r="331" spans="1:11">
+      <c r="L330">
+        <v>984.12562136500003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
       <c r="A331">
         <v>330</v>
       </c>
@@ -15890,8 +16917,11 @@
       <c r="K331">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:11">
+      <c r="L331">
+        <v>677.63293263100002</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
       <c r="A332">
         <v>331</v>
       </c>
@@ -15925,8 +16955,11 @@
       <c r="K332">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:11">
+      <c r="L332">
+        <v>677.64249951900001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
       <c r="A333">
         <v>332</v>
       </c>
@@ -15960,8 +16993,11 @@
       <c r="K333">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:11">
+      <c r="L333">
+        <v>677.61544578600001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
       <c r="A334">
         <v>333</v>
       </c>
@@ -15995,8 +17031,11 @@
       <c r="K334">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:11">
+      <c r="L334">
+        <v>700.08646892299998</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
       <c r="A335">
         <v>334</v>
       </c>
@@ -16030,8 +17069,11 @@
       <c r="K335">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:11">
+      <c r="L335">
+        <v>700.08666740900003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
       <c r="A336">
         <v>335</v>
       </c>
@@ -16065,8 +17107,11 @@
       <c r="K336">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:11">
+      <c r="L336">
+        <v>700.082306625</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
       <c r="A337">
         <v>336</v>
       </c>
@@ -16100,8 +17145,11 @@
       <c r="K337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:11">
+      <c r="L337">
+        <v>700.10481152800003</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
       <c r="A338">
         <v>337</v>
       </c>
@@ -16135,8 +17183,11 @@
       <c r="K338">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:11">
+      <c r="L338">
+        <v>700.08884194100006</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
       <c r="A339">
         <v>338</v>
       </c>
@@ -16170,8 +17221,11 @@
       <c r="K339">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:11">
+      <c r="L339">
+        <v>984.11813920400004</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
       <c r="A340">
         <v>339</v>
       </c>
@@ -16205,8 +17259,11 @@
       <c r="K340">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:11">
+      <c r="L340">
+        <v>700.08405200899995</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
       <c r="A341">
         <v>340</v>
       </c>
@@ -16240,8 +17297,11 @@
       <c r="K341">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:11">
+      <c r="L341">
+        <v>700.08337968000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
       <c r="A342">
         <v>341</v>
       </c>
@@ -16275,8 +17335,11 @@
       <c r="K342">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:11">
+      <c r="L342">
+        <v>700.08943399899999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
       <c r="A343">
         <v>342</v>
       </c>
@@ -16310,8 +17373,11 @@
       <c r="K343">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:11">
+      <c r="L343">
+        <v>700.08424158499997</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
       <c r="A344">
         <v>343</v>
       </c>
@@ -16345,8 +17411,11 @@
       <c r="K344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:11">
+      <c r="L344">
+        <v>700.09727370300004</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
       <c r="A345">
         <v>344</v>
       </c>
@@ -16380,8 +17449,11 @@
       <c r="K345">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:11">
+      <c r="L345">
+        <v>1124.60840813</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
       <c r="A346">
         <v>345</v>
       </c>
@@ -16415,8 +17487,11 @@
       <c r="K346">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:11">
+      <c r="L346">
+        <v>1070.0569849599999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
       <c r="A347">
         <v>346</v>
       </c>
@@ -16450,8 +17525,11 @@
       <c r="K347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:11">
+      <c r="L347">
+        <v>688.86984981399996</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12">
       <c r="A348">
         <v>347</v>
       </c>
@@ -16485,8 +17563,11 @@
       <c r="K348">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:11">
+      <c r="L348">
+        <v>571.56374743699996</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
       <c r="A349">
         <v>348</v>
       </c>
@@ -16520,8 +17601,11 @@
       <c r="K349">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:11">
+      <c r="L349">
+        <v>766.66302128500001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
       <c r="A350">
         <v>349</v>
       </c>
@@ -16555,8 +17639,11 @@
       <c r="K350">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:11">
+      <c r="L350">
+        <v>563.45069165699999</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
       <c r="A351">
         <v>350</v>
       </c>
@@ -16590,8 +17677,11 @@
       <c r="K351">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:11">
+      <c r="L351">
+        <v>612.996251551</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
       <c r="A352">
         <v>351</v>
       </c>
@@ -16625,8 +17715,11 @@
       <c r="K352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:11">
+      <c r="L352">
+        <v>587.51313534899998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
       <c r="A353">
         <v>352</v>
       </c>
@@ -16660,8 +17753,11 @@
       <c r="K353">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:11">
+      <c r="L353">
+        <v>808.49918789599997</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
       <c r="A354">
         <v>353</v>
       </c>
@@ -16695,8 +17791,11 @@
       <c r="K354">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:11">
+      <c r="L354">
+        <v>832.38188636799998</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
       <c r="A355">
         <v>354</v>
       </c>
@@ -16730,8 +17829,11 @@
       <c r="K355">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:11">
+      <c r="L355">
+        <v>773.12582959099996</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
       <c r="A356">
         <v>355</v>
       </c>
@@ -16765,8 +17867,11 @@
       <c r="K356">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:11">
+      <c r="L356">
+        <v>773.12798225100005</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
       <c r="A357">
         <v>356</v>
       </c>
@@ -16800,8 +17905,11 @@
       <c r="K357">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:11">
+      <c r="L357">
+        <v>773.13025886100002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12">
       <c r="A358">
         <v>357</v>
       </c>
@@ -16835,8 +17943,11 @@
       <c r="K358">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:11">
+      <c r="L358">
+        <v>773.13380590500003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12">
       <c r="A359">
         <v>358</v>
       </c>
@@ -16870,8 +17981,11 @@
       <c r="K359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:11">
+      <c r="L359">
+        <v>773.12582959099996</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
       <c r="A360">
         <v>359</v>
       </c>
@@ -16905,8 +18019,11 @@
       <c r="K360">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:11">
+      <c r="L360">
+        <v>450.76071133599999</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
       <c r="A361">
         <v>360</v>
       </c>
@@ -16940,8 +18057,11 @@
       <c r="K361">
         <v>0</v>
       </c>
-    </row>
-    <row r="362" spans="1:11">
+      <c r="L361">
+        <v>450.77771873699999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
       <c r="A362">
         <v>361</v>
       </c>
@@ -16975,8 +18095,11 @@
       <c r="K362">
         <v>0</v>
       </c>
-    </row>
-    <row r="363" spans="1:11">
+      <c r="L362">
+        <v>450.77163149799998</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17010,8 +18133,11 @@
       <c r="K363">
         <v>0</v>
       </c>
-    </row>
-    <row r="364" spans="1:11">
+      <c r="L363">
+        <v>450.76700528100002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17045,8 +18171,11 @@
       <c r="K364">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:11">
+      <c r="L364">
+        <v>814.86625040599995</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17080,8 +18209,11 @@
       <c r="K365">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:11">
+      <c r="L365">
+        <v>1096.4062232700001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17115,8 +18247,11 @@
       <c r="K366">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:11">
+      <c r="L366">
+        <v>577.34823246600001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17150,8 +18285,11 @@
       <c r="K367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:11">
+      <c r="L367">
+        <v>577.34488702600004</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17185,8 +18323,11 @@
       <c r="K368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:11">
+      <c r="L368">
+        <v>577.35521479600004</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17220,8 +18361,11 @@
       <c r="K369">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:11">
+      <c r="L369">
+        <v>551.91017684899998</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17255,8 +18399,11 @@
       <c r="K370">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:11">
+      <c r="L370">
+        <v>551.92216769300001</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17290,8 +18437,11 @@
       <c r="K371">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:11">
+      <c r="L371">
+        <v>551.93917706299999</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17325,8 +18475,11 @@
       <c r="K372">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:11">
+      <c r="L372">
+        <v>551.93389329299998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17360,8 +18513,11 @@
       <c r="K373">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:11">
+      <c r="L373">
+        <v>551.92452045300001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17395,8 +18551,11 @@
       <c r="K374">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:11">
+      <c r="L374">
+        <v>551.93050595399995</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
       <c r="A375">
         <v>374</v>
       </c>
@@ -17430,8 +18589,11 @@
       <c r="K375">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:11">
+      <c r="L375">
+        <v>551.92184843200005</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
       <c r="A376">
         <v>375</v>
       </c>
@@ -17465,8 +18627,11 @@
       <c r="K376">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:11">
+      <c r="L376">
+        <v>788.15590224100004</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
       <c r="A377">
         <v>376</v>
       </c>
@@ -17500,8 +18665,11 @@
       <c r="K377">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:11">
+      <c r="L377">
+        <v>551.92050476999998</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
       <c r="A378">
         <v>377</v>
       </c>
@@ -17535,8 +18703,11 @@
       <c r="K378">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:11">
+      <c r="L378">
+        <v>399.666898592</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
       <c r="A379">
         <v>378</v>
       </c>
@@ -17570,8 +18741,11 @@
       <c r="K379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:11">
+      <c r="L379">
+        <v>623.22948609299999</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
       <c r="A380">
         <v>379</v>
       </c>
@@ -17605,8 +18779,11 @@
       <c r="K380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:11">
+      <c r="L380">
+        <v>623.22103393299994</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
       <c r="A381">
         <v>380</v>
       </c>
@@ -17640,8 +18817,11 @@
       <c r="K381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:11">
+      <c r="L381">
+        <v>558.92520679200004</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
       <c r="A382">
         <v>381</v>
       </c>
@@ -17675,8 +18855,11 @@
       <c r="K382">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:11">
+      <c r="L382">
+        <v>571.57583761000001</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
       <c r="A383">
         <v>382</v>
       </c>
@@ -17710,8 +18893,11 @@
       <c r="K383">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:11">
+      <c r="L383">
+        <v>571.58743424199997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
       <c r="A384">
         <v>383</v>
       </c>
@@ -17745,8 +18931,11 @@
       <c r="K384">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:11">
+      <c r="L384">
+        <v>546.27646910199996</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
       <c r="A385">
         <v>384</v>
       </c>
@@ -17780,8 +18969,11 @@
       <c r="K385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:11">
+      <c r="L385">
+        <v>816.47919146699996</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
       <c r="A386">
         <v>385</v>
       </c>
@@ -17815,8 +19007,11 @@
       <c r="K386">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:11">
+      <c r="L386">
+        <v>875.06789815000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
       <c r="A387">
         <v>386</v>
       </c>
@@ -17850,8 +19045,11 @@
       <c r="K387">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:11">
+      <c r="L387">
+        <v>998.20019777599998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
       <c r="A388">
         <v>387</v>
       </c>
@@ -17885,8 +19083,11 @@
       <c r="K388">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:11">
+      <c r="L388">
+        <v>2151.8077377</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
       <c r="A389">
         <v>388</v>
       </c>
@@ -17920,8 +19121,11 @@
       <c r="K389">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:11">
+      <c r="L389">
+        <v>675.04029008700002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
       <c r="A390">
         <v>389</v>
       </c>
@@ -17955,8 +19159,11 @@
       <c r="K390">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:11">
+      <c r="L390">
+        <v>618.05129106899994</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
       <c r="A391">
         <v>390</v>
       </c>
@@ -17990,8 +19197,11 @@
       <c r="K391">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:11">
+      <c r="L391">
+        <v>826.09716676799997</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18025,8 +19235,11 @@
       <c r="K392">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:11">
+      <c r="L392">
+        <v>1640.38960413</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18060,8 +19273,11 @@
       <c r="K393">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:11">
+      <c r="L393">
+        <v>2021.8093357099999</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18095,8 +19311,11 @@
       <c r="K394">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:11">
+      <c r="L394">
+        <v>1450.47612546</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18130,8 +19349,11 @@
       <c r="K395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:11">
+      <c r="L395">
+        <v>1386.11398633</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18165,8 +19387,11 @@
       <c r="K396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:11">
+      <c r="L396">
+        <v>1855.9282401</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18200,8 +19425,11 @@
       <c r="K397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:11">
+      <c r="L397">
+        <v>2173.63706022</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18235,8 +19463,11 @@
       <c r="K398">
         <v>0</v>
       </c>
-    </row>
-    <row r="399" spans="1:11">
+      <c r="L398">
+        <v>516.97455560000003</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18270,8 +19501,11 @@
       <c r="K399">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:11">
+      <c r="L399">
+        <v>1382.5488728800001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
       <c r="A400">
         <v>399</v>
       </c>
@@ -18305,8 +19539,11 @@
       <c r="K400">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:11">
+      <c r="L400">
+        <v>1382.53961729</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
       <c r="A401">
         <v>400</v>
       </c>
@@ -18340,8 +19577,11 @@
       <c r="K401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:11">
+      <c r="L401">
+        <v>1193.6345474499999</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
       <c r="A402">
         <v>401</v>
       </c>
@@ -18375,8 +19615,11 @@
       <c r="K402">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:11">
+      <c r="L402">
+        <v>1337.26001077</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
       <c r="A403">
         <v>402</v>
       </c>
@@ -18410,8 +19653,11 @@
       <c r="K403">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:11">
+      <c r="L403">
+        <v>1636.8042397199999</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
       <c r="A404">
         <v>403</v>
       </c>
@@ -18445,8 +19691,11 @@
       <c r="K404">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:11">
+      <c r="L404">
+        <v>1066.43515933</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
       <c r="A405">
         <v>404</v>
       </c>
@@ -18480,8 +19729,11 @@
       <c r="K405">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:11">
+      <c r="L405">
+        <v>1158.35689325</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
       <c r="A406">
         <v>405</v>
       </c>
@@ -18515,8 +19767,11 @@
       <c r="K406">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:11">
+      <c r="L406">
+        <v>1255.4186423599999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
       <c r="A407">
         <v>406</v>
       </c>
@@ -18550,8 +19805,11 @@
       <c r="K407">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:11">
+      <c r="L407">
+        <v>1365.2134821</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
       <c r="A408">
         <v>407</v>
       </c>
@@ -18585,8 +19843,11 @@
       <c r="K408">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:11">
+      <c r="L408">
+        <v>1319.81213998</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
       <c r="A409">
         <v>408</v>
       </c>
@@ -18620,8 +19881,11 @@
       <c r="K409">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:11">
+      <c r="L409">
+        <v>1605.4267228900001</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18655,8 +19919,11 @@
       <c r="K410">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:11">
+      <c r="L410">
+        <v>1172.0537184499999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
       <c r="A411">
         <v>410</v>
       </c>
@@ -18690,8 +19957,11 @@
       <c r="K411">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:11">
+      <c r="L411">
+        <v>282.35673477500001</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
       <c r="A412">
         <v>411</v>
       </c>
@@ -18725,8 +19995,11 @@
       <c r="K412">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:11">
+      <c r="L412">
+        <v>859.90489337999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
       <c r="A413">
         <v>412</v>
       </c>
@@ -18760,8 +20033,11 @@
       <c r="K413">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:11">
+      <c r="L413">
+        <v>1251.82892425</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
       <c r="A414">
         <v>413</v>
       </c>
@@ -18795,8 +20071,11 @@
       <c r="K414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:11">
+      <c r="L414">
+        <v>1251.8265936400001</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
       <c r="A415">
         <v>414</v>
       </c>
@@ -18830,8 +20109,11 @@
       <c r="K415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:11">
+      <c r="L415">
+        <v>1251.8151619499999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18865,8 +20147,11 @@
       <c r="K416">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:11">
+      <c r="L416">
+        <v>1079.4900406199999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18900,8 +20185,11 @@
       <c r="K417">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:11">
+      <c r="L417">
+        <v>1079.4675357900001</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18935,8 +20223,11 @@
       <c r="K418">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:11">
+      <c r="L418">
+        <v>1079.48415174</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18970,8 +20261,11 @@
       <c r="K419">
         <v>0</v>
       </c>
-    </row>
-    <row r="420" spans="1:11">
+      <c r="L419">
+        <v>1068.7562932200001</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
       <c r="A420">
         <v>419</v>
       </c>
@@ -19005,8 +20299,11 @@
       <c r="K420">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:11">
+      <c r="L420">
+        <v>1077.21659118</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
       <c r="A421">
         <v>420</v>
       </c>
@@ -19040,8 +20337,11 @@
       <c r="K421">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:11">
+      <c r="L421">
+        <v>1379.0020052899999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
       <c r="A422">
         <v>421</v>
       </c>
@@ -19075,8 +20375,11 @@
       <c r="K422">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:11">
+      <c r="L422">
+        <v>1506.0948062699999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
       <c r="A423">
         <v>422</v>
       </c>
@@ -19110,8 +20413,11 @@
       <c r="K423">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:11">
+      <c r="L423">
+        <v>1153.35300306</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
       <c r="A424">
         <v>423</v>
       </c>
@@ -19145,8 +20451,11 @@
       <c r="K424">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:11">
+      <c r="L424">
+        <v>1140.5704790899999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
       <c r="A425">
         <v>424</v>
       </c>
@@ -19180,8 +20489,11 @@
       <c r="K425">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:11">
+      <c r="L425">
+        <v>840.10914257100001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
       <c r="A426">
         <v>425</v>
       </c>
@@ -19215,8 +20527,11 @@
       <c r="K426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:11">
+      <c r="L426">
+        <v>840.13089185700005</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
       <c r="A427">
         <v>426</v>
       </c>
@@ -19250,8 +20565,11 @@
       <c r="K427">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:11">
+      <c r="L427">
+        <v>952.31309711699998</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
       <c r="A428">
         <v>427</v>
       </c>
@@ -19285,8 +20603,11 @@
       <c r="K428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:11">
+      <c r="L428">
+        <v>952.36803635199999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
       <c r="A429">
         <v>428</v>
       </c>
@@ -19320,8 +20641,11 @@
       <c r="K429">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:11">
+      <c r="L429">
+        <v>1062.57385129</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
       <c r="A430">
         <v>429</v>
       </c>
@@ -19355,8 +20679,11 @@
       <c r="K430">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:11">
+      <c r="L430">
+        <v>210.40864733699999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
       <c r="A431">
         <v>430</v>
       </c>
@@ -19390,8 +20717,11 @@
       <c r="K431">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:11">
+      <c r="L431">
+        <v>981.10673753399999</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
       <c r="A432">
         <v>431</v>
       </c>
@@ -19425,8 +20755,11 @@
       <c r="K432">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:11">
+      <c r="L432">
+        <v>1124.72275171</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
       <c r="A433">
         <v>432</v>
       </c>
@@ -19460,8 +20793,11 @@
       <c r="K433">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:11">
+      <c r="L433">
+        <v>1124.71337868</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
       <c r="A434">
         <v>433</v>
       </c>
@@ -19495,8 +20831,11 @@
       <c r="K434">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:11">
+      <c r="L434">
+        <v>1124.6809313599999</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
       <c r="A435">
         <v>434</v>
       </c>
@@ -19530,8 +20869,11 @@
       <c r="K435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:11">
+      <c r="L435">
+        <v>935.88684895699998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
       <c r="A436">
         <v>435</v>
       </c>
@@ -19565,8 +20907,11 @@
       <c r="K436">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:11">
+      <c r="L436">
+        <v>935.81568236700002</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
       <c r="A437">
         <v>436</v>
       </c>
@@ -19600,8 +20945,11 @@
       <c r="K437">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:11">
+      <c r="L437">
+        <v>1028.0893163799999</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
       <c r="A438">
         <v>437</v>
       </c>
@@ -19635,8 +20983,11 @@
       <c r="K438">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:11">
+      <c r="L438">
+        <v>1028.07543962</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
       <c r="A439">
         <v>438</v>
       </c>
@@ -19670,8 +21021,11 @@
       <c r="K439">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:11">
+      <c r="L439">
+        <v>460.79545829300002</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
       <c r="A440">
         <v>439</v>
       </c>
@@ -19705,8 +21059,11 @@
       <c r="K440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:11">
+      <c r="L440">
+        <v>1158.4508114800001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19740,8 +21097,11 @@
       <c r="K441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:11">
+      <c r="L441">
+        <v>1158.4430124800001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19775,8 +21135,11 @@
       <c r="K442">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:11">
+      <c r="L442">
+        <v>1606.19823389</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19810,8 +21173,11 @@
       <c r="K443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:11">
+      <c r="L443">
+        <v>886.74316804600005</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19845,8 +21211,11 @@
       <c r="K444">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:11">
+      <c r="L444">
+        <v>927.71193212499998</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19880,8 +21249,11 @@
       <c r="K445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:11">
+      <c r="L445">
+        <v>903.60647926199999</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19915,8 +21287,11 @@
       <c r="K446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:11">
+      <c r="L446">
+        <v>460.79545829300002</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19950,8 +21325,11 @@
       <c r="K447">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:11">
+      <c r="L447">
+        <v>785.72409915699996</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19985,8 +21363,11 @@
       <c r="K448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:11">
+      <c r="L448">
+        <v>673.228234692</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
       <c r="A449">
         <v>448</v>
       </c>
@@ -20020,8 +21401,11 @@
       <c r="K449">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:11">
+      <c r="L449">
+        <v>731.10088601699999</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
       <c r="A450">
         <v>449</v>
       </c>
@@ -20055,8 +21439,11 @@
       <c r="K450">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:11">
+      <c r="L450">
+        <v>447.37304526200001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
       <c r="A451">
         <v>450</v>
       </c>
@@ -20090,8 +21477,11 @@
       <c r="K451">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:11">
+      <c r="L451">
+        <v>340.00377537200001</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
       <c r="A452">
         <v>451</v>
       </c>
@@ -20125,8 +21515,11 @@
       <c r="K452">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:11">
+      <c r="L452">
+        <v>672.54639639499999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
       <c r="A453">
         <v>452</v>
       </c>
@@ -20160,8 +21553,11 @@
       <c r="K453">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:11">
+      <c r="L453">
+        <v>458.193544352</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
       <c r="A454">
         <v>453</v>
       </c>
@@ -20195,8 +21591,11 @@
       <c r="K454">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:11">
+      <c r="L454">
+        <v>591.54732635400001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
       <c r="A455">
         <v>454</v>
       </c>
@@ -20230,8 +21629,11 @@
       <c r="K455">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:11">
+      <c r="L455">
+        <v>209.28344306299999</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
       <c r="A456">
         <v>455</v>
       </c>
@@ -20265,8 +21667,11 @@
       <c r="K456">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:11">
+      <c r="L456">
+        <v>563.66718748200003</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
       <c r="A457">
         <v>456</v>
       </c>
@@ -20300,8 +21705,11 @@
       <c r="K457">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:11">
+      <c r="L457">
+        <v>680.93810397000004</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
       <c r="A458">
         <v>457</v>
       </c>
@@ -20335,8 +21743,11 @@
       <c r="K458">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:11">
+      <c r="L458">
+        <v>446.34493640199997</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
       <c r="A459">
         <v>458</v>
       </c>
@@ -20370,8 +21781,11 @@
       <c r="K459">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:11">
+      <c r="L459">
+        <v>446.36127746199998</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
       <c r="A460">
         <v>459</v>
       </c>
@@ -20405,8 +21819,11 @@
       <c r="K460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:11">
+      <c r="L460">
+        <v>836.55839559499998</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
       <c r="A461">
         <v>460</v>
       </c>
@@ -20440,8 +21857,11 @@
       <c r="K461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:11">
+      <c r="L461">
+        <v>926.17347395299998</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
       <c r="A462">
         <v>461</v>
       </c>
@@ -20475,8 +21895,11 @@
       <c r="K462">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:11">
+      <c r="L462">
+        <v>278.86305467800003</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
       <c r="A463">
         <v>462</v>
       </c>
@@ -20510,8 +21933,11 @@
       <c r="K463">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:11">
+      <c r="L463">
+        <v>442.86751103400002</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
       <c r="A464">
         <v>463</v>
       </c>
@@ -20545,8 +21971,11 @@
       <c r="K464">
         <v>0</v>
       </c>
-    </row>
-    <row r="465" spans="1:11">
+      <c r="L464">
+        <v>442.89214009300002</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
       <c r="A465">
         <v>464</v>
       </c>
@@ -20580,8 +22009,11 @@
       <c r="K465">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:11">
+      <c r="L465">
+        <v>325.55653625899998</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
       <c r="A466">
         <v>465</v>
       </c>
@@ -20615,8 +22047,11 @@
       <c r="K466">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:11">
+      <c r="L466">
+        <v>325.56316742600001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
       <c r="A467">
         <v>466</v>
       </c>
@@ -20650,8 +22085,11 @@
       <c r="K467">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:11">
+      <c r="L467">
+        <v>520.65035252999996</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
       <c r="A468">
         <v>467</v>
       </c>
@@ -20685,8 +22123,11 @@
       <c r="K468">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:11">
+      <c r="L468">
+        <v>520.64142878999996</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
       <c r="A469">
         <v>468</v>
       </c>
@@ -20720,8 +22161,11 @@
       <c r="K469">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:11">
+      <c r="L469">
+        <v>451.52612373199997</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
       <c r="A470">
         <v>469</v>
       </c>
@@ -20755,8 +22199,11 @@
       <c r="K470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:11">
+      <c r="L470">
+        <v>441.29614476799998</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
       <c r="A471">
         <v>470</v>
       </c>
@@ -20790,8 +22237,11 @@
       <c r="K471">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:11">
+      <c r="L471">
+        <v>527.10959252600003</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
       <c r="A472">
         <v>471</v>
       </c>
@@ -20825,8 +22275,11 @@
       <c r="K472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:11">
+      <c r="L472">
+        <v>527.10959252600003</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
       <c r="A473">
         <v>472</v>
       </c>
@@ -20860,8 +22313,11 @@
       <c r="K473">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:11">
+      <c r="L473">
+        <v>539.75504962100001</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
       <c r="A474">
         <v>473</v>
       </c>
@@ -20895,8 +22351,11 @@
       <c r="K474">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:11">
+      <c r="L474">
+        <v>628.27510865900001</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
       <c r="A475">
         <v>474</v>
       </c>
@@ -20930,8 +22389,11 @@
       <c r="K475">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:11">
+      <c r="L475">
+        <v>204.76026691000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
       <c r="A476">
         <v>475</v>
       </c>
@@ -20965,8 +22427,11 @@
       <c r="K476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:11">
+      <c r="L476">
+        <v>547.21360823600003</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
       <c r="A477">
         <v>476</v>
       </c>
@@ -21000,8 +22465,11 @@
       <c r="K477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:11">
+      <c r="L477">
+        <v>407.08750535799999</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
       <c r="A478">
         <v>477</v>
       </c>
@@ -21035,8 +22503,11 @@
       <c r="K478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:11">
+      <c r="L478">
+        <v>508.22583297599999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
       <c r="A479">
         <v>478</v>
       </c>
@@ -21070,8 +22541,11 @@
       <c r="K479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:11">
+      <c r="L479">
+        <v>329.46783275899998</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
       <c r="A480">
         <v>479</v>
       </c>
@@ -21105,8 +22579,11 @@
       <c r="K480">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:11">
+      <c r="L480">
+        <v>377.21016487200001</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
       <c r="A481">
         <v>480</v>
       </c>
@@ -21140,8 +22617,11 @@
       <c r="K481">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:11">
+      <c r="L481">
+        <v>356.65436888300002</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
       <c r="A482">
         <v>481</v>
       </c>
@@ -21175,8 +22655,11 @@
       <c r="K482">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:11">
+      <c r="L482">
+        <v>401.43202638399998</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>482</v>
       </c>
@@ -21210,8 +22693,11 @@
       <c r="K483">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:11">
+      <c r="L483">
+        <v>680.99374434799995</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>483</v>
       </c>
@@ -21245,8 +22731,11 @@
       <c r="K484">
         <v>0</v>
       </c>
-    </row>
-    <row r="485" spans="1:11">
+      <c r="L484">
+        <v>395.76554642000002</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>484</v>
       </c>
@@ -21280,8 +22769,11 @@
       <c r="K485">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:11">
+      <c r="L485">
+        <v>1075.3219633000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>485</v>
       </c>
@@ -21315,8 +22807,11 @@
       <c r="K486">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:11">
+      <c r="L486">
+        <v>480.74569175900001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>486</v>
       </c>
@@ -21350,8 +22845,11 @@
       <c r="K487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:11">
+      <c r="L487">
+        <v>263.63215589200001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>487</v>
       </c>
@@ -21385,8 +22883,11 @@
       <c r="K488">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:11">
+      <c r="L488">
+        <v>1031.5316513</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
       <c r="A489">
         <v>488</v>
       </c>
@@ -21420,8 +22921,11 @@
       <c r="K489">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:11">
+      <c r="L489">
+        <v>822.33834024800001</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
       <c r="A490">
         <v>489</v>
       </c>
@@ -21455,8 +22959,11 @@
       <c r="K490">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:11">
+      <c r="L490">
+        <v>838.85940204999997</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
       <c r="A491">
         <v>490</v>
       </c>
@@ -21490,8 +22997,11 @@
       <c r="K491">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:11">
+      <c r="L491">
+        <v>838.68088004499998</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
       <c r="A492">
         <v>491</v>
       </c>
@@ -21525,8 +23035,11 @@
       <c r="K492">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:11">
+      <c r="L492">
+        <v>744.036477279</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
       <c r="A493">
         <v>492</v>
       </c>
@@ -21560,8 +23073,11 @@
       <c r="K493">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:11">
+      <c r="L493">
+        <v>773.63223599900005</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
       <c r="A494">
         <v>493</v>
       </c>
@@ -21595,8 +23111,11 @@
       <c r="K494">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:11">
+      <c r="L494">
+        <v>773.60568837200003</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
       <c r="A495">
         <v>494</v>
       </c>
@@ -21630,8 +23149,11 @@
       <c r="K495">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:11">
+      <c r="L495">
+        <v>646.48724040000002</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12">
       <c r="A496">
         <v>495</v>
       </c>
@@ -21665,8 +23187,11 @@
       <c r="K496">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:11">
+      <c r="L496">
+        <v>646.50363221999999</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12">
       <c r="A497">
         <v>496</v>
       </c>
@@ -21700,8 +23225,11 @@
       <c r="K497">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:11">
+      <c r="L497">
+        <v>1132.6974668600001</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12">
       <c r="A498">
         <v>497</v>
       </c>
@@ -21735,8 +23263,11 @@
       <c r="K498">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:11">
+      <c r="L498">
+        <v>1110.20365627</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12">
       <c r="A499">
         <v>498</v>
       </c>
@@ -21770,8 +23301,11 @@
       <c r="K499">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:11">
+      <c r="L499">
+        <v>1266.37446428</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12">
       <c r="A500">
         <v>499</v>
       </c>
@@ -21805,8 +23339,11 @@
       <c r="K500">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:11">
+      <c r="L500">
+        <v>375.223391214</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12">
       <c r="A501">
         <v>500</v>
       </c>
@@ -21840,8 +23377,11 @@
       <c r="K501">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:11">
+      <c r="L501">
+        <v>702.29319789800002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12">
       <c r="A502">
         <v>501</v>
       </c>
@@ -21875,8 +23415,11 @@
       <c r="K502">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:11">
+      <c r="L502">
+        <v>700.96354811799995</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12">
       <c r="A503">
         <v>502</v>
       </c>
@@ -21910,8 +23453,11 @@
       <c r="K503">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:11">
+      <c r="L503">
+        <v>702.35220988599997</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12">
       <c r="A504">
         <v>503</v>
       </c>
@@ -21945,8 +23491,11 @@
       <c r="K504">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:11">
+      <c r="L504">
+        <v>829.59746590600002</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12">
       <c r="A505">
         <v>504</v>
       </c>
@@ -21980,8 +23529,11 @@
       <c r="K505">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:11">
+      <c r="L505">
+        <v>381.51930751999998</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12">
       <c r="A506">
         <v>505</v>
       </c>
@@ -22015,8 +23567,11 @@
       <c r="K506">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:11">
+      <c r="L506">
+        <v>940.05048421699996</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12">
       <c r="A507">
         <v>506</v>
       </c>
@@ -22050,8 +23605,11 @@
       <c r="K507">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:11">
+      <c r="L507">
+        <v>1094.8089294500001</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
       <c r="A508">
         <v>507</v>
       </c>
@@ -22085,8 +23643,11 @@
       <c r="K508">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:11">
+      <c r="L508">
+        <v>489.23914357699999</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12">
       <c r="A509">
         <v>508</v>
       </c>
@@ -22120,8 +23681,11 @@
       <c r="K509">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:11">
+      <c r="L509">
+        <v>486.21538757799999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
       <c r="A510">
         <v>509</v>
       </c>
@@ -22155,8 +23719,11 @@
       <c r="K510">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:11">
+      <c r="L510">
+        <v>876.27470668000001</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
       <c r="A511">
         <v>510</v>
       </c>
@@ -22190,8 +23757,11 @@
       <c r="K511">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:11">
+      <c r="L511">
+        <v>495.14959558999999</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
       <c r="A512">
         <v>511</v>
       </c>
@@ -22225,8 +23795,11 @@
       <c r="K512">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:11">
+      <c r="L512">
+        <v>376.64244105400002</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12">
       <c r="A513">
         <v>512</v>
       </c>
@@ -22260,8 +23833,11 @@
       <c r="K513">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:11">
+      <c r="L513">
+        <v>515.70693874799997</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12">
       <c r="A514">
         <v>513</v>
       </c>
@@ -22295,8 +23871,11 @@
       <c r="K514">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:11">
+      <c r="L514">
+        <v>871.86320798600002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12">
       <c r="A515">
         <v>514</v>
       </c>
@@ -22330,8 +23909,11 @@
       <c r="K515">
         <v>1</v>
       </c>
-    </row>
-    <row r="516" spans="1:11">
+      <c r="L515">
+        <v>898.49670484800004</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12">
       <c r="A516">
         <v>515</v>
       </c>
@@ -22365,8 +23947,11 @@
       <c r="K516">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:11">
+      <c r="L516">
+        <v>855.27042406700002</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12">
       <c r="A517">
         <v>516</v>
       </c>
@@ -22400,8 +23985,11 @@
       <c r="K517">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:11">
+      <c r="L517">
+        <v>693.33020566000005</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12">
       <c r="A518">
         <v>517</v>
       </c>
@@ -22435,8 +24023,11 @@
       <c r="K518">
         <v>0</v>
       </c>
-    </row>
-    <row r="519" spans="1:11">
+      <c r="L518">
+        <v>808.97116856100001</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12">
       <c r="A519">
         <v>518</v>
       </c>
@@ -22470,8 +24061,11 @@
       <c r="K519">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:11">
+      <c r="L519">
+        <v>972.47264792700003</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12">
       <c r="A520">
         <v>519</v>
       </c>
@@ -22505,8 +24099,11 @@
       <c r="K520">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:11">
+      <c r="L520">
+        <v>292.35819009099998</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12">
       <c r="A521">
         <v>520</v>
       </c>
@@ -22540,8 +24137,11 @@
       <c r="K521">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:11">
+      <c r="L521">
+        <v>1239.1598913099999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12">
       <c r="A522">
         <v>521</v>
       </c>
@@ -22575,8 +24175,11 @@
       <c r="K522">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:11">
+      <c r="L522">
+        <v>493.10905142899998</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12">
       <c r="A523">
         <v>522</v>
       </c>
@@ -22610,8 +24213,11 @@
       <c r="K523">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:11">
+      <c r="L523">
+        <v>830.74565564199997</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12">
       <c r="A524">
         <v>523</v>
       </c>
@@ -22645,8 +24251,11 @@
       <c r="K524">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:11">
+      <c r="L524">
+        <v>242.93178281799999</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12">
       <c r="A525">
         <v>524</v>
       </c>
@@ -22680,8 +24289,11 @@
       <c r="K525">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:11">
+      <c r="L525">
+        <v>823.07347780400005</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12">
       <c r="A526">
         <v>525</v>
       </c>
@@ -22715,8 +24327,11 @@
       <c r="K526">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:11">
+      <c r="L526">
+        <v>909.521441697</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12">
       <c r="A527">
         <v>526</v>
       </c>
@@ -22750,8 +24365,11 @@
       <c r="K527">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:11">
+      <c r="L527">
+        <v>789.92180614999995</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12">
       <c r="A528">
         <v>527</v>
       </c>
@@ -22785,8 +24403,11 @@
       <c r="K528">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:11">
+      <c r="L528">
+        <v>804.33804002199997</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12">
       <c r="A529">
         <v>528</v>
       </c>
@@ -22820,8 +24441,11 @@
       <c r="K529">
         <v>2</v>
       </c>
-    </row>
-    <row r="530" spans="1:11">
+      <c r="L529">
+        <v>841.62819413600005</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12">
       <c r="A530">
         <v>529</v>
       </c>
@@ -22855,8 +24479,11 @@
       <c r="K530">
         <v>2</v>
       </c>
-    </row>
-    <row r="531" spans="1:11">
+      <c r="L530">
+        <v>942.79239620800001</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12">
       <c r="A531">
         <v>530</v>
       </c>
@@ -22890,8 +24517,11 @@
       <c r="K531">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:11">
+      <c r="L531">
+        <v>529.39252515299995</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12">
       <c r="A532">
         <v>531</v>
       </c>
@@ -22925,8 +24555,11 @@
       <c r="K532">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:11">
+      <c r="L532">
+        <v>751.73235076900005</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12">
       <c r="A533">
         <v>532</v>
       </c>
@@ -22960,8 +24593,11 @@
       <c r="K533">
         <v>1</v>
       </c>
-    </row>
-    <row r="534" spans="1:11">
+      <c r="L533">
+        <v>774.17920025800004</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
       <c r="A534">
         <v>533</v>
       </c>
@@ -22995,8 +24631,11 @@
       <c r="K534">
         <v>0</v>
       </c>
-    </row>
-    <row r="535" spans="1:11">
+      <c r="L534">
+        <v>403.16550931799998</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
       <c r="A535">
         <v>534</v>
       </c>
@@ -23030,8 +24669,11 @@
       <c r="K535">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:11">
+      <c r="L535">
+        <v>750.32187696300002</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
       <c r="A536">
         <v>535</v>
       </c>
@@ -23065,8 +24707,11 @@
       <c r="K536">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:11">
+      <c r="L536">
+        <v>707.12247252700001</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
       <c r="A537">
         <v>536</v>
       </c>
@@ -23100,8 +24745,11 @@
       <c r="K537">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:11">
+      <c r="L537">
+        <v>659.29784993199996</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
       <c r="A538">
         <v>537</v>
       </c>
@@ -23135,8 +24783,11 @@
       <c r="K538">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:11">
+      <c r="L538">
+        <v>650.30162754000003</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
       <c r="A539">
         <v>538</v>
       </c>
@@ -23170,8 +24821,11 @@
       <c r="K539">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:11">
+      <c r="L539">
+        <v>659.29056688799994</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
       <c r="A540">
         <v>539</v>
       </c>
@@ -23205,8 +24859,11 @@
       <c r="K540">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:11">
+      <c r="L540">
+        <v>648.502102433</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
       <c r="A541">
         <v>540</v>
       </c>
@@ -23240,8 +24897,11 @@
       <c r="K541">
         <v>2</v>
       </c>
-    </row>
-    <row r="542" spans="1:11">
+      <c r="L541">
+        <v>835.97606200200005</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
       <c r="A542">
         <v>541</v>
       </c>
@@ -23275,8 +24935,11 @@
       <c r="K542">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:11">
+      <c r="L542">
+        <v>801.11024522499997</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
       <c r="A543">
         <v>542</v>
       </c>
@@ -23310,8 +24973,11 @@
       <c r="K543">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:11">
+      <c r="L543">
+        <v>847.54005106099999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
       <c r="A544">
         <v>543</v>
       </c>
@@ -23345,8 +25011,11 @@
       <c r="K544">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:11">
+      <c r="L544">
+        <v>292.99247042100001</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
       <c r="A545">
         <v>544</v>
       </c>
@@ -23380,8 +25049,11 @@
       <c r="K545">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:11">
+      <c r="L545">
+        <v>292.99857691599999</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
       <c r="A546">
         <v>545</v>
       </c>
@@ -23415,8 +25087,11 @@
       <c r="K546">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:11">
+      <c r="L546">
+        <v>292.99857691599999</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
       <c r="A547">
         <v>546</v>
       </c>
@@ -23450,8 +25125,11 @@
       <c r="K547">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:11">
+      <c r="L547">
+        <v>291.285660291</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
       <c r="A548">
         <v>547</v>
       </c>
@@ -23485,8 +25163,11 @@
       <c r="K548">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:11">
+      <c r="L548">
+        <v>528.36748427299995</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
       <c r="A549">
         <v>548</v>
       </c>
@@ -23520,8 +25201,11 @@
       <c r="K549">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:11">
+      <c r="L549">
+        <v>654.95944264399998</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
       <c r="A550">
         <v>549</v>
       </c>
@@ -23555,8 +25239,11 @@
       <c r="K550">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:11">
+      <c r="L550">
+        <v>726.78013972600002</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
       <c r="A551">
         <v>550</v>
       </c>
@@ -23590,8 +25277,11 @@
       <c r="K551">
         <v>2</v>
       </c>
-    </row>
-    <row r="552" spans="1:11">
+      <c r="L551">
+        <v>747.90726058600001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12">
       <c r="A552">
         <v>551</v>
       </c>
@@ -23625,8 +25315,11 @@
       <c r="K552">
         <v>2</v>
       </c>
-    </row>
-    <row r="553" spans="1:11">
+      <c r="L552">
+        <v>845.66910123100001</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12">
       <c r="A553">
         <v>552</v>
       </c>
@@ -23660,8 +25353,11 @@
       <c r="K553">
         <v>2</v>
       </c>
-    </row>
-    <row r="554" spans="1:11">
+      <c r="L553">
+        <v>833.71371139200005</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12">
       <c r="A554">
         <v>553</v>
       </c>
@@ -23695,8 +25391,11 @@
       <c r="K554">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:11">
+      <c r="L554">
+        <v>761.16813126099998</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12">
       <c r="A555">
         <v>554</v>
       </c>
@@ -23730,8 +25429,11 @@
       <c r="K555">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:11">
+      <c r="L555">
+        <v>425.36936049799999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12">
       <c r="A556">
         <v>555</v>
       </c>
@@ -23765,8 +25467,11 @@
       <c r="K556">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:11">
+      <c r="L556">
+        <v>524.86672051100004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12">
       <c r="A557">
         <v>556</v>
       </c>
@@ -23800,8 +25505,11 @@
       <c r="K557">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:11">
+      <c r="L557">
+        <v>524.87959006699998</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12">
       <c r="A558">
         <v>557</v>
       </c>
@@ -23835,8 +25543,11 @@
       <c r="K558">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:11">
+      <c r="L558">
+        <v>524.84892744000001</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12">
       <c r="A559">
         <v>558</v>
       </c>
@@ -23870,8 +25581,11 @@
       <c r="K559">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:11">
+      <c r="L559">
+        <v>407.56504851800003</v>
+      </c>
+    </row>
+    <row r="560" spans="1:12">
       <c r="A560">
         <v>559</v>
       </c>
@@ -23905,8 +25619,11 @@
       <c r="K560">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:11">
+      <c r="L560">
+        <v>407.56481636400002</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12">
       <c r="A561">
         <v>560</v>
       </c>
@@ -23940,8 +25657,11 @@
       <c r="K561">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:11">
+      <c r="L561">
+        <v>800.86571770199998</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12">
       <c r="A562">
         <v>561</v>
       </c>
@@ -23975,8 +25695,11 @@
       <c r="K562">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:11">
+      <c r="L562">
+        <v>407.56730715899999</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12">
       <c r="A563">
         <v>562</v>
       </c>
@@ -24010,8 +25733,11 @@
       <c r="K563">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:11">
+      <c r="L563">
+        <v>407.55939644400001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12">
       <c r="A564">
         <v>563</v>
       </c>
@@ -24045,8 +25771,11 @@
       <c r="K564">
         <v>0</v>
       </c>
-    </row>
-    <row r="565" spans="1:11">
+      <c r="L564">
+        <v>393.16181643599998</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12">
       <c r="A565">
         <v>564</v>
       </c>
@@ -24080,8 +25809,11 @@
       <c r="K565">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:11">
+      <c r="L565">
+        <v>602.65810424599999</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12">
       <c r="A566">
         <v>565</v>
       </c>
@@ -24115,8 +25847,11 @@
       <c r="K566">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:11">
+      <c r="L566">
+        <v>1035.41307803</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12">
       <c r="A567">
         <v>566</v>
       </c>
@@ -24150,8 +25885,11 @@
       <c r="K567">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:11">
+      <c r="L567">
+        <v>506.02814880800003</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12">
       <c r="A568">
         <v>567</v>
       </c>
@@ -24185,8 +25923,11 @@
       <c r="K568">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:11">
+      <c r="L568">
+        <v>609.14662998100005</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12">
       <c r="A569">
         <v>568</v>
       </c>
@@ -24220,8 +25961,11 @@
       <c r="K569">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="1:11">
+      <c r="L569">
+        <v>609.108073322</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12">
       <c r="A570">
         <v>569</v>
       </c>
@@ -24255,8 +25999,11 @@
       <c r="K570">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:11">
+      <c r="L570">
+        <v>634.42992343399999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12">
       <c r="A571">
         <v>570</v>
       </c>
@@ -24290,8 +26037,11 @@
       <c r="K571">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:11">
+      <c r="L571">
+        <v>710.28160724300005</v>
+      </c>
+    </row>
+    <row r="572" spans="1:12">
       <c r="A572">
         <v>571</v>
       </c>
@@ -24325,8 +26075,11 @@
       <c r="K572">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:11">
+      <c r="L572">
+        <v>755.57829610900001</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12">
       <c r="A573">
         <v>572</v>
       </c>
@@ -24360,8 +26113,11 @@
       <c r="K573">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:11">
+      <c r="L573">
+        <v>286.76105397100002</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12">
       <c r="A574">
         <v>573</v>
       </c>
@@ -24395,8 +26151,11 @@
       <c r="K574">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:11">
+      <c r="L574">
+        <v>286.76472294600001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:12">
       <c r="A575">
         <v>574</v>
       </c>
@@ -24430,8 +26189,11 @@
       <c r="K575">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:11">
+      <c r="L575">
+        <v>509.56343106000003</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12">
       <c r="A576">
         <v>575</v>
       </c>
@@ -24465,8 +26227,11 @@
       <c r="K576">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:11">
+      <c r="L576">
+        <v>899.131317201</v>
+      </c>
+    </row>
+    <row r="577" spans="1:12">
       <c r="A577">
         <v>576</v>
       </c>
@@ -24500,8 +26265,11 @@
       <c r="K577">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:11">
+      <c r="L577">
+        <v>544.86630112199998</v>
+      </c>
+    </row>
+    <row r="578" spans="1:12">
       <c r="A578">
         <v>577</v>
       </c>
@@ -24535,8 +26303,11 @@
       <c r="K578">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:11">
+      <c r="L578">
+        <v>669.15276865299995</v>
+      </c>
+    </row>
+    <row r="579" spans="1:12">
       <c r="A579">
         <v>578</v>
       </c>
@@ -24570,8 +26341,11 @@
       <c r="K579">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:11">
+      <c r="L579">
+        <v>517.77400171700003</v>
+      </c>
+    </row>
+    <row r="580" spans="1:12">
       <c r="A580">
         <v>579</v>
       </c>
@@ -24605,8 +26379,11 @@
       <c r="K580">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:11">
+      <c r="L580">
+        <v>691.39889598499997</v>
+      </c>
+    </row>
+    <row r="581" spans="1:12">
       <c r="A581">
         <v>580</v>
       </c>
@@ -24640,8 +26417,11 @@
       <c r="K581">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:11">
+      <c r="L581">
+        <v>459.21288440799998</v>
+      </c>
+    </row>
+    <row r="582" spans="1:12">
       <c r="A582">
         <v>581</v>
       </c>
@@ -24675,8 +26455,11 @@
       <c r="K582">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:11">
+      <c r="L582">
+        <v>411.46928905999999</v>
+      </c>
+    </row>
+    <row r="583" spans="1:12">
       <c r="A583">
         <v>582</v>
       </c>
@@ -24710,8 +26493,11 @@
       <c r="K583">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:11">
+      <c r="L583">
+        <v>598.62894370900005</v>
+      </c>
+    </row>
+    <row r="584" spans="1:12">
       <c r="A584">
         <v>583</v>
       </c>
@@ -24745,8 +26531,11 @@
       <c r="K584">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:11">
+      <c r="L584">
+        <v>597.23793143800003</v>
+      </c>
+    </row>
+    <row r="585" spans="1:12">
       <c r="A585">
         <v>584</v>
       </c>
@@ -24780,8 +26569,11 @@
       <c r="K585">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:11">
+      <c r="L585">
+        <v>846.14182464800001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:12">
       <c r="A586">
         <v>585</v>
       </c>
@@ -24815,8 +26607,11 @@
       <c r="K586">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:11">
+      <c r="L586">
+        <v>712.01039801000002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:12">
       <c r="A587">
         <v>586</v>
       </c>
@@ -24850,8 +26645,11 @@
       <c r="K587">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:11">
+      <c r="L587">
+        <v>1003.50232485</v>
+      </c>
+    </row>
+    <row r="588" spans="1:12">
       <c r="A588">
         <v>587</v>
       </c>
@@ -24885,8 +26683,11 @@
       <c r="K588">
         <v>0</v>
       </c>
-    </row>
-    <row r="589" spans="1:11">
+      <c r="L588">
+        <v>726.79033453399995</v>
+      </c>
+    </row>
+    <row r="589" spans="1:12">
       <c r="A589">
         <v>588</v>
       </c>
@@ -24920,8 +26721,11 @@
       <c r="K589">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:11">
+      <c r="L589">
+        <v>1987.73530613</v>
+      </c>
+    </row>
+    <row r="590" spans="1:12">
       <c r="A590">
         <v>589</v>
       </c>
@@ -24955,8 +26759,11 @@
       <c r="K590">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:11">
+      <c r="L590">
+        <v>511.04492580900001</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12">
       <c r="A591">
         <v>590</v>
       </c>
@@ -24990,8 +26797,11 @@
       <c r="K591">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:11">
+      <c r="L591">
+        <v>1356.0261679400001</v>
+      </c>
+    </row>
+    <row r="592" spans="1:12">
       <c r="A592">
         <v>591</v>
       </c>
@@ -25025,8 +26835,11 @@
       <c r="K592">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:11">
+      <c r="L592">
+        <v>1199.8690952300001</v>
+      </c>
+    </row>
+    <row r="593" spans="1:12">
       <c r="A593">
         <v>592</v>
       </c>
@@ -25060,8 +26873,11 @@
       <c r="K593">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:11">
+      <c r="L593">
+        <v>1183.54292751</v>
+      </c>
+    </row>
+    <row r="594" spans="1:12">
       <c r="A594">
         <v>593</v>
       </c>
@@ -25095,8 +26911,11 @@
       <c r="K594">
         <v>0</v>
       </c>
-    </row>
-    <row r="595" spans="1:11">
+      <c r="L594">
+        <v>1719.85767212</v>
+      </c>
+    </row>
+    <row r="595" spans="1:12">
       <c r="A595">
         <v>594</v>
       </c>
@@ -25130,8 +26949,11 @@
       <c r="K595">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:11">
+      <c r="L595">
+        <v>938.39742800700003</v>
+      </c>
+    </row>
+    <row r="596" spans="1:12">
       <c r="A596">
         <v>595</v>
       </c>
@@ -25165,8 +26987,11 @@
       <c r="K596">
         <v>0</v>
       </c>
-    </row>
-    <row r="597" spans="1:11">
+      <c r="L596">
+        <v>938.52704404999997</v>
+      </c>
+    </row>
+    <row r="597" spans="1:12">
       <c r="A597">
         <v>596</v>
       </c>
@@ -25200,8 +27025,11 @@
       <c r="K597">
         <v>0</v>
       </c>
-    </row>
-    <row r="598" spans="1:11">
+      <c r="L597">
+        <v>654.75175231799994</v>
+      </c>
+    </row>
+    <row r="598" spans="1:12">
       <c r="A598">
         <v>597</v>
       </c>
@@ -25235,8 +27063,11 @@
       <c r="K598">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:11">
+      <c r="L598">
+        <v>1048.6054948799999</v>
+      </c>
+    </row>
+    <row r="599" spans="1:12">
       <c r="A599">
         <v>598</v>
       </c>
@@ -25270,8 +27101,11 @@
       <c r="K599">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:11">
+      <c r="L599">
+        <v>807.84035847200005</v>
+      </c>
+    </row>
+    <row r="600" spans="1:12">
       <c r="A600">
         <v>599</v>
       </c>
@@ -25305,8 +27139,11 @@
       <c r="K600">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:11">
+      <c r="L600">
+        <v>807.89951751299998</v>
+      </c>
+    </row>
+    <row r="601" spans="1:12">
       <c r="A601">
         <v>600</v>
       </c>
@@ -25340,8 +27177,11 @@
       <c r="K601">
         <v>0</v>
       </c>
-    </row>
-    <row r="602" spans="1:11">
+      <c r="L601">
+        <v>807.77238603499995</v>
+      </c>
+    </row>
+    <row r="602" spans="1:12">
       <c r="A602">
         <v>601</v>
       </c>
@@ -25375,8 +27215,11 @@
       <c r="K602">
         <v>0</v>
       </c>
-    </row>
-    <row r="603" spans="1:11">
+      <c r="L602">
+        <v>774.67247157500003</v>
+      </c>
+    </row>
+    <row r="603" spans="1:12">
       <c r="A603">
         <v>602</v>
       </c>
@@ -25410,8 +27253,11 @@
       <c r="K603">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:11">
+      <c r="L603">
+        <v>804.35213467599999</v>
+      </c>
+    </row>
+    <row r="604" spans="1:12">
       <c r="A604">
         <v>603</v>
       </c>
@@ -25445,8 +27291,11 @@
       <c r="K604">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:11">
+      <c r="L604">
+        <v>804.31710649900003</v>
+      </c>
+    </row>
+    <row r="605" spans="1:12">
       <c r="A605">
         <v>604</v>
       </c>
@@ -25480,8 +27329,11 @@
       <c r="K605">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:11">
+      <c r="L605">
+        <v>804.28106740299995</v>
+      </c>
+    </row>
+    <row r="606" spans="1:12">
       <c r="A606">
         <v>605</v>
       </c>
@@ -25515,8 +27367,11 @@
       <c r="K606">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:11">
+      <c r="L606">
+        <v>677.17057967000005</v>
+      </c>
+    </row>
+    <row r="607" spans="1:12">
       <c r="A607">
         <v>606</v>
       </c>
@@ -25550,8 +27405,11 @@
       <c r="K607">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:11">
+      <c r="L607">
+        <v>677.21872264000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:12">
       <c r="A608">
         <v>607</v>
       </c>
@@ -25585,8 +27443,11 @@
       <c r="K608">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:11">
+      <c r="L608">
+        <v>677.13671273600005</v>
+      </c>
+    </row>
+    <row r="609" spans="1:12">
       <c r="A609">
         <v>608</v>
       </c>
@@ -25620,8 +27481,11 @@
       <c r="K609">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:11">
+      <c r="L609">
+        <v>562.74550336300001</v>
+      </c>
+    </row>
+    <row r="610" spans="1:12">
       <c r="A610">
         <v>609</v>
       </c>
@@ -25655,8 +27519,11 @@
       <c r="K610">
         <v>0</v>
       </c>
-    </row>
-    <row r="611" spans="1:11">
+      <c r="L610">
+        <v>883.27280436399997</v>
+      </c>
+    </row>
+    <row r="611" spans="1:12">
       <c r="A611">
         <v>610</v>
       </c>
@@ -25690,8 +27557,11 @@
       <c r="K611">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:11">
+      <c r="L611">
+        <v>1020.44193201</v>
+      </c>
+    </row>
+    <row r="612" spans="1:12">
       <c r="A612">
         <v>611</v>
       </c>
@@ -25725,8 +27595,11 @@
       <c r="K612">
         <v>0</v>
       </c>
-    </row>
-    <row r="613" spans="1:11">
+      <c r="L612">
+        <v>387.03614304899997</v>
+      </c>
+    </row>
+    <row r="613" spans="1:12">
       <c r="A613">
         <v>612</v>
       </c>
@@ -25760,8 +27633,11 @@
       <c r="K613">
         <v>0</v>
       </c>
-    </row>
-    <row r="614" spans="1:11">
+      <c r="L613">
+        <v>1074.57899645</v>
+      </c>
+    </row>
+    <row r="614" spans="1:12">
       <c r="A614">
         <v>613</v>
       </c>
@@ -25795,8 +27671,11 @@
       <c r="K614">
         <v>0</v>
       </c>
-    </row>
-    <row r="615" spans="1:11">
+      <c r="L614">
+        <v>1326.5589683000001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:12">
       <c r="A615">
         <v>614</v>
       </c>
@@ -25830,8 +27709,11 @@
       <c r="K615">
         <v>1</v>
       </c>
-    </row>
-    <row r="616" spans="1:11">
+      <c r="L615">
+        <v>713.39061711099998</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12">
       <c r="A616">
         <v>615</v>
       </c>
@@ -25865,8 +27747,11 @@
       <c r="K616">
         <v>1</v>
       </c>
-    </row>
-    <row r="617" spans="1:11">
+      <c r="L616">
+        <v>722.54129188499996</v>
+      </c>
+    </row>
+    <row r="617" spans="1:12">
       <c r="A617">
         <v>616</v>
       </c>
@@ -25900,8 +27785,11 @@
       <c r="K617">
         <v>0</v>
       </c>
-    </row>
-    <row r="618" spans="1:11">
+      <c r="L617">
+        <v>387.03614304899997</v>
+      </c>
+    </row>
+    <row r="618" spans="1:12">
       <c r="A618">
         <v>617</v>
       </c>
@@ -25935,8 +27823,11 @@
       <c r="K618">
         <v>1</v>
       </c>
-    </row>
-    <row r="619" spans="1:11">
+      <c r="L618">
+        <v>830.01943761899997</v>
+      </c>
+    </row>
+    <row r="619" spans="1:12">
       <c r="A619">
         <v>618</v>
       </c>
@@ -25970,8 +27861,11 @@
       <c r="K619">
         <v>1</v>
       </c>
-    </row>
-    <row r="620" spans="1:11">
+      <c r="L619">
+        <v>825.35089071599998</v>
+      </c>
+    </row>
+    <row r="620" spans="1:12">
       <c r="A620">
         <v>619</v>
       </c>
@@ -26005,8 +27899,11 @@
       <c r="K620">
         <v>1</v>
       </c>
-    </row>
-    <row r="621" spans="1:11">
+      <c r="L620">
+        <v>1063.8882518999999</v>
+      </c>
+    </row>
+    <row r="621" spans="1:12">
       <c r="A621">
         <v>620</v>
       </c>
@@ -26040,8 +27937,11 @@
       <c r="K621">
         <v>0</v>
       </c>
-    </row>
-    <row r="622" spans="1:11">
+      <c r="L621">
+        <v>386.98871408799999</v>
+      </c>
+    </row>
+    <row r="622" spans="1:12">
       <c r="A622">
         <v>621</v>
       </c>
@@ -26075,8 +27975,11 @@
       <c r="K622">
         <v>1</v>
       </c>
-    </row>
-    <row r="623" spans="1:11">
+      <c r="L622">
+        <v>789.37271395300002</v>
+      </c>
+    </row>
+    <row r="623" spans="1:12">
       <c r="A623">
         <v>622</v>
       </c>
@@ -26110,8 +28013,11 @@
       <c r="K623">
         <v>0</v>
       </c>
-    </row>
-    <row r="624" spans="1:11">
+      <c r="L623">
+        <v>791.92668126000001</v>
+      </c>
+    </row>
+    <row r="624" spans="1:12">
       <c r="A624">
         <v>623</v>
       </c>
@@ -26145,8 +28051,11 @@
       <c r="K624">
         <v>0</v>
       </c>
-    </row>
-    <row r="625" spans="1:11">
+      <c r="L624">
+        <v>791.94381149200001</v>
+      </c>
+    </row>
+    <row r="625" spans="1:12">
       <c r="A625">
         <v>624</v>
       </c>
@@ -26180,8 +28089,11 @@
       <c r="K625">
         <v>0</v>
       </c>
-    </row>
-    <row r="626" spans="1:11">
+      <c r="L625">
+        <v>925.72159467300003</v>
+      </c>
+    </row>
+    <row r="626" spans="1:12">
       <c r="A626">
         <v>625</v>
       </c>
@@ -26215,8 +28127,11 @@
       <c r="K626">
         <v>0</v>
       </c>
-    </row>
-    <row r="627" spans="1:11">
+      <c r="L626">
+        <v>925.71128596999995</v>
+      </c>
+    </row>
+    <row r="627" spans="1:12">
       <c r="A627">
         <v>626</v>
       </c>
@@ -26250,8 +28165,11 @@
       <c r="K627">
         <v>0</v>
       </c>
-    </row>
-    <row r="628" spans="1:11">
+      <c r="L627">
+        <v>1340.4465379400001</v>
+      </c>
+    </row>
+    <row r="628" spans="1:12">
       <c r="A628">
         <v>627</v>
       </c>
@@ -26285,8 +28203,11 @@
       <c r="K628">
         <v>0</v>
       </c>
-    </row>
-    <row r="629" spans="1:11">
+      <c r="L628">
+        <v>1244.1452300799999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:12">
       <c r="A629">
         <v>628</v>
       </c>
@@ -26320,8 +28241,11 @@
       <c r="K629">
         <v>0</v>
       </c>
-    </row>
-    <row r="630" spans="1:11">
+      <c r="L629">
+        <v>1378.1466196599999</v>
+      </c>
+    </row>
+    <row r="630" spans="1:12">
       <c r="A630">
         <v>629</v>
       </c>
@@ -26355,8 +28279,11 @@
       <c r="K630">
         <v>0</v>
       </c>
-    </row>
-    <row r="631" spans="1:11">
+      <c r="L630">
+        <v>1420.0109648099999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:12">
       <c r="A631">
         <v>630</v>
       </c>
@@ -26390,8 +28317,11 @@
       <c r="K631">
         <v>1</v>
       </c>
-    </row>
-    <row r="632" spans="1:11">
+      <c r="L631">
+        <v>1150.0896047799999</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12">
       <c r="A632">
         <v>631</v>
       </c>
@@ -26425,8 +28355,11 @@
       <c r="K632">
         <v>0</v>
       </c>
-    </row>
-    <row r="633" spans="1:11">
+      <c r="L632">
+        <v>605.95878889300002</v>
+      </c>
+    </row>
+    <row r="633" spans="1:12">
       <c r="A633">
         <v>632</v>
       </c>
@@ -26460,8 +28393,11 @@
       <c r="K633">
         <v>0</v>
       </c>
-    </row>
-    <row r="634" spans="1:11">
+      <c r="L633">
+        <v>831.30265883499999</v>
+      </c>
+    </row>
+    <row r="634" spans="1:12">
       <c r="A634">
         <v>633</v>
       </c>
@@ -26495,8 +28431,11 @@
       <c r="K634">
         <v>1</v>
       </c>
-    </row>
-    <row r="635" spans="1:11">
+      <c r="L634">
+        <v>883.66325717400002</v>
+      </c>
+    </row>
+    <row r="635" spans="1:12">
       <c r="A635">
         <v>634</v>
       </c>
@@ -26530,8 +28469,11 @@
       <c r="K635">
         <v>0</v>
       </c>
-    </row>
-    <row r="636" spans="1:11">
+      <c r="L635">
+        <v>523.95798464400002</v>
+      </c>
+    </row>
+    <row r="636" spans="1:12">
       <c r="A636">
         <v>635</v>
       </c>
@@ -26565,8 +28507,11 @@
       <c r="K636">
         <v>0</v>
       </c>
-    </row>
-    <row r="637" spans="1:11">
+      <c r="L636">
+        <v>605.96279029799996</v>
+      </c>
+    </row>
+    <row r="637" spans="1:12">
       <c r="A637">
         <v>636</v>
       </c>
@@ -26600,8 +28545,11 @@
       <c r="K637">
         <v>0</v>
       </c>
-    </row>
-    <row r="638" spans="1:11">
+      <c r="L637">
+        <v>354.01481123799999</v>
+      </c>
+    </row>
+    <row r="638" spans="1:12">
       <c r="A638">
         <v>637</v>
       </c>
@@ -26635,8 +28583,11 @@
       <c r="K638">
         <v>0</v>
       </c>
-    </row>
-    <row r="639" spans="1:11">
+      <c r="L638">
+        <v>786.04370596599995</v>
+      </c>
+    </row>
+    <row r="639" spans="1:12">
       <c r="A639">
         <v>638</v>
       </c>
@@ -26670,8 +28621,11 @@
       <c r="K639">
         <v>0</v>
       </c>
-    </row>
-    <row r="640" spans="1:11">
+      <c r="L639">
+        <v>923.56473281000001</v>
+      </c>
+    </row>
+    <row r="640" spans="1:12">
       <c r="A640">
         <v>639</v>
       </c>
@@ -26705,8 +28659,11 @@
       <c r="K640">
         <v>0</v>
       </c>
-    </row>
-    <row r="641" spans="1:11">
+      <c r="L640">
+        <v>837.12466138100001</v>
+      </c>
+    </row>
+    <row r="641" spans="1:12">
       <c r="A641">
         <v>640</v>
       </c>
@@ -26740,8 +28697,11 @@
       <c r="K641">
         <v>0</v>
       </c>
-    </row>
-    <row r="642" spans="1:11">
+      <c r="L641">
+        <v>837.27594699400004</v>
+      </c>
+    </row>
+    <row r="642" spans="1:12">
       <c r="A642">
         <v>641</v>
       </c>
@@ -26775,8 +28735,11 @@
       <c r="K642">
         <v>0</v>
       </c>
-    </row>
-    <row r="643" spans="1:11">
+      <c r="L642">
+        <v>569.91053122100004</v>
+      </c>
+    </row>
+    <row r="643" spans="1:12">
       <c r="A643">
         <v>642</v>
       </c>
@@ -26810,8 +28773,11 @@
       <c r="K643">
         <v>0</v>
       </c>
-    </row>
-    <row r="644" spans="1:11">
+      <c r="L643">
+        <v>733.52502028699996</v>
+      </c>
+    </row>
+    <row r="644" spans="1:12">
       <c r="A644">
         <v>643</v>
       </c>
@@ -26845,8 +28811,11 @@
       <c r="K644">
         <v>0</v>
       </c>
-    </row>
-    <row r="645" spans="1:11">
+      <c r="L644">
+        <v>958.27346356800001</v>
+      </c>
+    </row>
+    <row r="645" spans="1:12">
       <c r="A645">
         <v>644</v>
       </c>
@@ -26880,8 +28849,11 @@
       <c r="K645">
         <v>0</v>
       </c>
-    </row>
-    <row r="646" spans="1:11">
+      <c r="L645">
+        <v>958.26129590599999</v>
+      </c>
+    </row>
+    <row r="646" spans="1:12">
       <c r="A646">
         <v>645</v>
       </c>
@@ -26915,8 +28887,11 @@
       <c r="K646">
         <v>0</v>
       </c>
-    </row>
-    <row r="647" spans="1:11">
+      <c r="L646">
+        <v>959.99272531199995</v>
+      </c>
+    </row>
+    <row r="647" spans="1:12">
       <c r="A647">
         <v>646</v>
       </c>
@@ -26950,8 +28925,11 @@
       <c r="K647">
         <v>0</v>
       </c>
-    </row>
-    <row r="648" spans="1:11">
+      <c r="L647">
+        <v>703.56609957800003</v>
+      </c>
+    </row>
+    <row r="648" spans="1:12">
       <c r="A648">
         <v>647</v>
       </c>
@@ -26985,8 +28963,11 @@
       <c r="K648">
         <v>0</v>
       </c>
-    </row>
-    <row r="649" spans="1:11">
+      <c r="L648">
+        <v>599.42380160899995</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12">
       <c r="A649">
         <v>648</v>
       </c>
@@ -27020,8 +29001,11 @@
       <c r="K649">
         <v>0</v>
       </c>
-    </row>
-    <row r="650" spans="1:11">
+      <c r="L649">
+        <v>599.42356218999998</v>
+      </c>
+    </row>
+    <row r="650" spans="1:12">
       <c r="A650">
         <v>649</v>
       </c>
@@ -27055,8 +29039,11 @@
       <c r="K650">
         <v>0</v>
       </c>
-    </row>
-    <row r="651" spans="1:11">
+      <c r="L650">
+        <v>953.83536833400001</v>
+      </c>
+    </row>
+    <row r="651" spans="1:12">
       <c r="A651">
         <v>650</v>
       </c>
@@ -27090,8 +29077,11 @@
       <c r="K651">
         <v>0</v>
       </c>
-    </row>
-    <row r="652" spans="1:11">
+      <c r="L651">
+        <v>953.85116862899997</v>
+      </c>
+    </row>
+    <row r="652" spans="1:12">
       <c r="A652">
         <v>651</v>
       </c>
@@ -27125,8 +29115,11 @@
       <c r="K652">
         <v>0</v>
       </c>
-    </row>
-    <row r="653" spans="1:11">
+      <c r="L652">
+        <v>955.57086038099999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:12">
       <c r="A653">
         <v>652</v>
       </c>
@@ -27160,8 +29153,11 @@
       <c r="K653">
         <v>0</v>
       </c>
-    </row>
-    <row r="654" spans="1:11">
+      <c r="L653">
+        <v>383.411041625</v>
+      </c>
+    </row>
+    <row r="654" spans="1:12">
       <c r="A654">
         <v>653</v>
       </c>
@@ -27194,6 +29190,9 @@
       </c>
       <c r="K654">
         <v>0</v>
+      </c>
+      <c r="L654">
+        <v>562.78461851899999</v>
       </c>
     </row>
   </sheetData>
